--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.471055300160003</v>
+        <v>2.47105530016006</v>
       </c>
       <c r="C2">
-        <v>1.056340524935536</v>
+        <v>1.056340524935308</v>
       </c>
       <c r="D2">
-        <v>0.1171579052073284</v>
+        <v>0.1171579052074279</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>2.007175646837084</v>
       </c>
       <c r="J2">
-        <v>0.8147695433560855</v>
+        <v>0.8147695433560997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.123963023633337</v>
+        <v>2.123963023633166</v>
       </c>
       <c r="C3">
         <v>0.9043437412884998</v>
       </c>
       <c r="D3">
-        <v>0.1026390141635858</v>
+        <v>0.1026390141636924</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.413654359384822</v>
+        <v>2.413654359384793</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.0627836707353</v>
       </c>
       <c r="I3">
-        <v>1.698104384017952</v>
+        <v>1.698104384017967</v>
       </c>
       <c r="J3">
         <v>0.6994599045046428</v>
@@ -491,7 +491,7 @@
         <v>1.91485240572635</v>
       </c>
       <c r="C4">
-        <v>0.8133015139254951</v>
+        <v>0.8133015139251825</v>
       </c>
       <c r="D4">
         <v>0.09396378759748814</v>
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.215652123305858</v>
+        <v>2.215652123305844</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9950991840383949</v>
+        <v>0.9950991840384091</v>
       </c>
       <c r="I4">
-        <v>1.516310796172405</v>
+        <v>1.516310796172434</v>
       </c>
       <c r="J4">
-        <v>0.630115530412354</v>
+        <v>0.6301155304123611</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.830469373617944</v>
+        <v>1.830469373617774</v>
       </c>
       <c r="C5">
-        <v>0.7766756656995142</v>
+        <v>0.7766756656995426</v>
       </c>
       <c r="D5">
-        <v>0.09047515650333793</v>
+        <v>0.09047515650338767</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.136805086383177</v>
+        <v>2.136805086383148</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.9683162780044157</v>
+        <v>0.9683162780044086</v>
       </c>
       <c r="I5">
-        <v>1.44386898343825</v>
+        <v>1.443868983438264</v>
       </c>
       <c r="J5">
-        <v>0.6021595065514376</v>
+        <v>0.6021595065514305</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816503116830347</v>
+        <v>1.81650311683029</v>
       </c>
       <c r="C6">
-        <v>0.7706199658044</v>
+        <v>0.7706199658042294</v>
       </c>
       <c r="D6">
-        <v>0.08989833255782287</v>
+        <v>0.08989833255772339</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.123815739719859</v>
+        <v>2.123815739719873</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.9639140927233996</v>
+        <v>0.9639140927234209</v>
       </c>
       <c r="I6">
         <v>1.431929578227283</v>
       </c>
       <c r="J6">
-        <v>0.5975339818881977</v>
+        <v>0.5975339818881906</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0.8128057656483634</v>
       </c>
       <c r="D7">
-        <v>0.09391656631206047</v>
+        <v>0.09391656631194678</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9947348899283099</v>
+        <v>0.9947348899283384</v>
       </c>
       <c r="I7">
-        <v>1.515327618360544</v>
+        <v>1.51532761836053</v>
       </c>
       <c r="J7">
-        <v>0.6297373597648672</v>
+        <v>0.6297373597648743</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350433093504989</v>
+        <v>2.350433093504819</v>
       </c>
       <c r="C8">
-        <v>1.003393348980609</v>
+        <v>1.003393348980836</v>
       </c>
       <c r="D8">
-        <v>0.1120930922628531</v>
+        <v>0.1120930922627608</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.138067442774783</v>
+        <v>1.138067442774769</v>
       </c>
       <c r="I8">
-        <v>1.898712182930169</v>
+        <v>1.898712182930183</v>
       </c>
       <c r="J8">
         <v>0.7746673626702574</v>
@@ -681,16 +681,16 @@
         <v>3.248044567306579</v>
       </c>
       <c r="C9">
-        <v>1.400644712154531</v>
+        <v>1.400644712154133</v>
       </c>
       <c r="D9">
-        <v>0.1504176902761145</v>
+        <v>0.1504176902762424</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.534284567266354</v>
+        <v>3.534284567266383</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>1.454348850877238</v>
       </c>
       <c r="I9">
-        <v>2.73437382976266</v>
+        <v>2.734373829762589</v>
       </c>
       <c r="J9">
-        <v>1.073853288114165</v>
+        <v>1.073853288114151</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>3.948814013568722</v>
       </c>
       <c r="C10">
-        <v>1.716182768634212</v>
+        <v>1.716182768634269</v>
       </c>
       <c r="D10">
-        <v>0.1816767275335422</v>
+        <v>0.1816767275334286</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.27577808597573</v>
+        <v>4.275778085975787</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.718943090778936</v>
+        <v>1.718943090778922</v>
       </c>
       <c r="I10">
         <v>3.43717620378753</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.281401903568337</v>
+        <v>4.281401903568451</v>
       </c>
       <c r="C11">
-        <v>1.867703072290567</v>
+        <v>1.867703072290453</v>
       </c>
       <c r="D11">
-        <v>0.197066598789533</v>
+        <v>0.1970665987898883</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.638530694767837</v>
+        <v>4.638530694767866</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>1.849522586025259</v>
       </c>
       <c r="I11">
-        <v>3.788561811329132</v>
+        <v>3.788561811329188</v>
       </c>
       <c r="J11">
-        <v>1.420571041914471</v>
+        <v>1.420571041914457</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>4.409867511647349</v>
       </c>
       <c r="C12">
-        <v>1.926548487491402</v>
+        <v>1.926548487491232</v>
       </c>
       <c r="D12">
-        <v>0.2031243217329006</v>
+        <v>0.2031243217330996</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.780498537953804</v>
+        <v>4.780498537953832</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.900798142309782</v>
+        <v>1.900798142309839</v>
       </c>
       <c r="I12">
-        <v>3.927681849428652</v>
+        <v>3.92768184942868</v>
       </c>
       <c r="J12">
-        <v>1.46385735605368</v>
+        <v>1.463857356053694</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.38207779352274</v>
+        <v>4.382077793522797</v>
       </c>
       <c r="C13">
         <v>1.913803651978526</v>
       </c>
       <c r="D13">
-        <v>0.201808214258449</v>
+        <v>0.2018082142588185</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.749700561600179</v>
+        <v>4.74970056160015</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.889666907347419</v>
+        <v>1.88966690734739</v>
       </c>
       <c r="I13">
-        <v>3.897420530060188</v>
+        <v>3.897420530060174</v>
       </c>
       <c r="J13">
-        <v>1.45449005687702</v>
+        <v>1.454490056876992</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.291916691258677</v>
+        <v>4.291916691258962</v>
       </c>
       <c r="C14">
-        <v>1.87251272599616</v>
+        <v>1.872512725996387</v>
       </c>
       <c r="D14">
-        <v>0.1975599249382896</v>
+        <v>0.1975599249379201</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.650111872215632</v>
+        <v>4.650111872215717</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.853702001116162</v>
+        <v>1.85370200111619</v>
       </c>
       <c r="I14">
-        <v>3.799875328968966</v>
+        <v>3.799875328969023</v>
       </c>
       <c r="J14">
-        <v>1.424112400280535</v>
+        <v>1.424112400280549</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.23703730087675</v>
+        <v>4.237037300876864</v>
       </c>
       <c r="C15">
-        <v>1.847423117899382</v>
+        <v>1.847423117898813</v>
       </c>
       <c r="D15">
         <v>0.1949898974032322</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.589742771306902</v>
+        <v>4.589742771306931</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.831922883392764</v>
+        <v>1.831922883392778</v>
       </c>
       <c r="I15">
-        <v>3.740968779288892</v>
+        <v>3.740968779288877</v>
       </c>
       <c r="J15">
-        <v>1.40563222460392</v>
+        <v>1.405632224603963</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>3.927399046575317</v>
       </c>
       <c r="C16">
-        <v>1.706466515987529</v>
+        <v>1.706466515987302</v>
       </c>
       <c r="D16">
-        <v>0.1806992756961421</v>
+        <v>0.1806992756958863</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.710643476708654</v>
+        <v>1.710643476708682</v>
       </c>
       <c r="I16">
-        <v>3.414966681934743</v>
+        <v>3.414966681934715</v>
       </c>
       <c r="J16">
-        <v>1.301505087511288</v>
+        <v>1.301505087511273</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>3.741320625536673</v>
       </c>
       <c r="C17">
-        <v>1.622239340681233</v>
+        <v>1.62223934068146</v>
       </c>
       <c r="D17">
-        <v>0.1722693610666823</v>
+        <v>0.1722693610669097</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.052976678872085</v>
+        <v>4.052976678872113</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.639085241616641</v>
+        <v>1.639085241616655</v>
       </c>
       <c r="I17">
-        <v>3.224005220602322</v>
+        <v>3.224005220602407</v>
       </c>
       <c r="J17">
-        <v>1.239042069023242</v>
+        <v>1.239042069023256</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.635553507065708</v>
+        <v>3.635553507065481</v>
       </c>
       <c r="C18">
-        <v>1.574521770413185</v>
+        <v>1.574521770413696</v>
       </c>
       <c r="D18">
-        <v>0.1675261051651944</v>
+        <v>0.1675261051654644</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.940451136087006</v>
+        <v>3.940451136087034</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>1.598862090670821</v>
       </c>
       <c r="I18">
-        <v>3.117037130906979</v>
+        <v>3.117037130907022</v>
       </c>
       <c r="J18">
         <v>1.203574873368922</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.599944913609022</v>
+        <v>3.599944913609249</v>
       </c>
       <c r="C19">
-        <v>1.55848203604603</v>
+        <v>1.558482036045746</v>
       </c>
       <c r="D19">
-        <v>0.1659366906363999</v>
+        <v>0.1659366906363573</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.902726749041051</v>
+        <v>3.902726749041108</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>1.585394417644096</v>
       </c>
       <c r="I19">
-        <v>3.08127429621787</v>
+        <v>3.081274296217885</v>
       </c>
       <c r="J19">
-        <v>1.191640077859944</v>
+        <v>1.19164007785993</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.760995121432984</v>
+        <v>3.760995121433268</v>
       </c>
       <c r="C20">
-        <v>1.631128117370395</v>
+        <v>1.631128117370451</v>
       </c>
       <c r="D20">
-        <v>0.1731554539835543</v>
+        <v>0.1731554539833979</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.073986373568005</v>
+        <v>4.073986373568061</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1.646603645214157</v>
       </c>
       <c r="I20">
-        <v>3.244027304305803</v>
+        <v>3.244027304305831</v>
       </c>
       <c r="J20">
         <v>1.245642502237601</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.3183257208143</v>
+        <v>4.318325720814357</v>
       </c>
       <c r="C21">
-        <v>1.884598006152544</v>
+        <v>1.88459800615243</v>
       </c>
       <c r="D21">
-        <v>0.1988009002685658</v>
+        <v>0.1988009002684379</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.864212786343856</v>
+        <v>1.864212786343842</v>
       </c>
       <c r="I21">
-        <v>3.828347607766702</v>
+        <v>3.828347607766673</v>
       </c>
       <c r="J21">
         <v>1.433008146987348</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.697643689804806</v>
+        <v>4.697643689804863</v>
       </c>
       <c r="C22">
-        <v>2.059037187651199</v>
+        <v>2.059037187651086</v>
       </c>
       <c r="D22">
-        <v>0.2169502005004631</v>
+        <v>0.2169502005002357</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.102272394018883</v>
+        <v>5.102272394018854</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.017336613096845</v>
+        <v>2.01733661309683</v>
       </c>
       <c r="I22">
         <v>4.246693328266247</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.49359547810127</v>
+        <v>4.493595478101383</v>
       </c>
       <c r="C23">
         <v>1.964999409733878</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.873582260808405</v>
+        <v>4.873582260808377</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.934466335120533</v>
+        <v>1.934466335120518</v>
       </c>
       <c r="I23">
-        <v>4.019424796175343</v>
+        <v>4.019424796175329</v>
       </c>
       <c r="J23">
-        <v>1.492092306287333</v>
+        <v>1.492092306287347</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.752096545576023</v>
+        <v>3.75209654557608</v>
       </c>
       <c r="C24">
-        <v>1.627107325985889</v>
+        <v>1.627107325985435</v>
       </c>
       <c r="D24">
-        <v>0.1727545341864953</v>
+        <v>0.1727545341862537</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.064480875021218</v>
+        <v>4.064480875021189</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.643201745501699</v>
+        <v>1.643201745501656</v>
       </c>
       <c r="I24">
-        <v>3.234966647573458</v>
+        <v>3.234966647573486</v>
       </c>
       <c r="J24">
-        <v>1.242657078732208</v>
+        <v>1.242657078732179</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.999329088688626</v>
+        <v>2.999329088688796</v>
       </c>
       <c r="C25">
         <v>1.28981334160494</v>
       </c>
       <c r="D25">
-        <v>0.1396357994108754</v>
+        <v>0.1396357994108683</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>1.364035257154995</v>
       </c>
       <c r="I25">
-        <v>2.496018733746908</v>
+        <v>2.496018733746922</v>
       </c>
       <c r="J25">
-        <v>0.9907743936735187</v>
+        <v>0.9907743936734903</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.47105530016006</v>
+        <v>2.471055300160003</v>
       </c>
       <c r="C2">
-        <v>1.056340524935308</v>
+        <v>1.056340524935536</v>
       </c>
       <c r="D2">
-        <v>0.1171579052074279</v>
+        <v>0.1171579052073284</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>2.007175646837084</v>
       </c>
       <c r="J2">
-        <v>0.8147695433560997</v>
+        <v>0.8147695433560855</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.123963023633166</v>
+        <v>2.123963023633337</v>
       </c>
       <c r="C3">
         <v>0.9043437412884998</v>
       </c>
       <c r="D3">
-        <v>0.1026390141636924</v>
+        <v>0.1026390141635858</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.413654359384793</v>
+        <v>2.413654359384822</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>1.0627836707353</v>
       </c>
       <c r="I3">
-        <v>1.698104384017967</v>
+        <v>1.698104384017952</v>
       </c>
       <c r="J3">
         <v>0.6994599045046428</v>
@@ -491,7 +491,7 @@
         <v>1.91485240572635</v>
       </c>
       <c r="C4">
-        <v>0.8133015139251825</v>
+        <v>0.8133015139254951</v>
       </c>
       <c r="D4">
         <v>0.09396378759748814</v>
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.215652123305844</v>
+        <v>2.215652123305858</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.9950991840384091</v>
+        <v>0.9950991840383949</v>
       </c>
       <c r="I4">
-        <v>1.516310796172434</v>
+        <v>1.516310796172405</v>
       </c>
       <c r="J4">
-        <v>0.6301155304123611</v>
+        <v>0.630115530412354</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.830469373617774</v>
+        <v>1.830469373617944</v>
       </c>
       <c r="C5">
-        <v>0.7766756656995426</v>
+        <v>0.7766756656995142</v>
       </c>
       <c r="D5">
-        <v>0.09047515650338767</v>
+        <v>0.09047515650333793</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.136805086383148</v>
+        <v>2.136805086383177</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.9683162780044086</v>
+        <v>0.9683162780044157</v>
       </c>
       <c r="I5">
-        <v>1.443868983438264</v>
+        <v>1.44386898343825</v>
       </c>
       <c r="J5">
-        <v>0.6021595065514305</v>
+        <v>0.6021595065514376</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.81650311683029</v>
+        <v>1.816503116830347</v>
       </c>
       <c r="C6">
-        <v>0.7706199658042294</v>
+        <v>0.7706199658044</v>
       </c>
       <c r="D6">
-        <v>0.08989833255772339</v>
+        <v>0.08989833255782287</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.123815739719873</v>
+        <v>2.123815739719859</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.9639140927234209</v>
+        <v>0.9639140927233996</v>
       </c>
       <c r="I6">
         <v>1.431929578227283</v>
       </c>
       <c r="J6">
-        <v>0.5975339818881906</v>
+        <v>0.5975339818881977</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0.8128057656483634</v>
       </c>
       <c r="D7">
-        <v>0.09391656631194678</v>
+        <v>0.09391656631206047</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.9947348899283384</v>
+        <v>0.9947348899283099</v>
       </c>
       <c r="I7">
-        <v>1.51532761836053</v>
+        <v>1.515327618360544</v>
       </c>
       <c r="J7">
-        <v>0.6297373597648743</v>
+        <v>0.6297373597648672</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350433093504819</v>
+        <v>2.350433093504989</v>
       </c>
       <c r="C8">
-        <v>1.003393348980836</v>
+        <v>1.003393348980609</v>
       </c>
       <c r="D8">
-        <v>0.1120930922627608</v>
+        <v>0.1120930922628531</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.138067442774769</v>
+        <v>1.138067442774783</v>
       </c>
       <c r="I8">
-        <v>1.898712182930183</v>
+        <v>1.898712182930169</v>
       </c>
       <c r="J8">
         <v>0.7746673626702574</v>
@@ -681,16 +681,16 @@
         <v>3.248044567306579</v>
       </c>
       <c r="C9">
-        <v>1.400644712154133</v>
+        <v>1.400644712154531</v>
       </c>
       <c r="D9">
-        <v>0.1504176902762424</v>
+        <v>0.1504176902761145</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.534284567266383</v>
+        <v>3.534284567266354</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>1.454348850877238</v>
       </c>
       <c r="I9">
-        <v>2.734373829762589</v>
+        <v>2.73437382976266</v>
       </c>
       <c r="J9">
-        <v>1.073853288114151</v>
+        <v>1.073853288114165</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,22 +719,22 @@
         <v>3.948814013568722</v>
       </c>
       <c r="C10">
-        <v>1.716182768634269</v>
+        <v>1.716182768634212</v>
       </c>
       <c r="D10">
-        <v>0.1816767275334286</v>
+        <v>0.1816767275335422</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.275778085975787</v>
+        <v>4.27577808597573</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.718943090778922</v>
+        <v>1.718943090778936</v>
       </c>
       <c r="I10">
         <v>3.43717620378753</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.281401903568451</v>
+        <v>4.281401903568337</v>
       </c>
       <c r="C11">
-        <v>1.867703072290453</v>
+        <v>1.867703072290567</v>
       </c>
       <c r="D11">
-        <v>0.1970665987898883</v>
+        <v>0.197066598789533</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.638530694767866</v>
+        <v>4.638530694767837</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>1.849522586025259</v>
       </c>
       <c r="I11">
-        <v>3.788561811329188</v>
+        <v>3.788561811329132</v>
       </c>
       <c r="J11">
-        <v>1.420571041914457</v>
+        <v>1.420571041914471</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,28 +795,28 @@
         <v>4.409867511647349</v>
       </c>
       <c r="C12">
-        <v>1.926548487491232</v>
+        <v>1.926548487491402</v>
       </c>
       <c r="D12">
-        <v>0.2031243217330996</v>
+        <v>0.2031243217329006</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.780498537953832</v>
+        <v>4.780498537953804</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1.900798142309839</v>
+        <v>1.900798142309782</v>
       </c>
       <c r="I12">
-        <v>3.92768184942868</v>
+        <v>3.927681849428652</v>
       </c>
       <c r="J12">
-        <v>1.463857356053694</v>
+        <v>1.46385735605368</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.382077793522797</v>
+        <v>4.38207779352274</v>
       </c>
       <c r="C13">
         <v>1.913803651978526</v>
       </c>
       <c r="D13">
-        <v>0.2018082142588185</v>
+        <v>0.201808214258449</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.74970056160015</v>
+        <v>4.749700561600179</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1.88966690734739</v>
+        <v>1.889666907347419</v>
       </c>
       <c r="I13">
-        <v>3.897420530060174</v>
+        <v>3.897420530060188</v>
       </c>
       <c r="J13">
-        <v>1.454490056876992</v>
+        <v>1.45449005687702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.291916691258962</v>
+        <v>4.291916691258677</v>
       </c>
       <c r="C14">
-        <v>1.872512725996387</v>
+        <v>1.87251272599616</v>
       </c>
       <c r="D14">
-        <v>0.1975599249379201</v>
+        <v>0.1975599249382896</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.650111872215717</v>
+        <v>4.650111872215632</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1.85370200111619</v>
+        <v>1.853702001116162</v>
       </c>
       <c r="I14">
-        <v>3.799875328969023</v>
+        <v>3.799875328968966</v>
       </c>
       <c r="J14">
-        <v>1.424112400280549</v>
+        <v>1.424112400280535</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.237037300876864</v>
+        <v>4.23703730087675</v>
       </c>
       <c r="C15">
-        <v>1.847423117898813</v>
+        <v>1.847423117899382</v>
       </c>
       <c r="D15">
         <v>0.1949898974032322</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.589742771306931</v>
+        <v>4.589742771306902</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1.831922883392778</v>
+        <v>1.831922883392764</v>
       </c>
       <c r="I15">
-        <v>3.740968779288877</v>
+        <v>3.740968779288892</v>
       </c>
       <c r="J15">
-        <v>1.405632224603963</v>
+        <v>1.40563222460392</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>3.927399046575317</v>
       </c>
       <c r="C16">
-        <v>1.706466515987302</v>
+        <v>1.706466515987529</v>
       </c>
       <c r="D16">
-        <v>0.1806992756958863</v>
+        <v>0.1806992756961421</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>1.710643476708682</v>
+        <v>1.710643476708654</v>
       </c>
       <c r="I16">
-        <v>3.414966681934715</v>
+        <v>3.414966681934743</v>
       </c>
       <c r="J16">
-        <v>1.301505087511273</v>
+        <v>1.301505087511288</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>3.741320625536673</v>
       </c>
       <c r="C17">
-        <v>1.62223934068146</v>
+        <v>1.622239340681233</v>
       </c>
       <c r="D17">
-        <v>0.1722693610669097</v>
+        <v>0.1722693610666823</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.052976678872113</v>
+        <v>4.052976678872085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1.639085241616655</v>
+        <v>1.639085241616641</v>
       </c>
       <c r="I17">
-        <v>3.224005220602407</v>
+        <v>3.224005220602322</v>
       </c>
       <c r="J17">
-        <v>1.239042069023256</v>
+        <v>1.239042069023242</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.635553507065481</v>
+        <v>3.635553507065708</v>
       </c>
       <c r="C18">
-        <v>1.574521770413696</v>
+        <v>1.574521770413185</v>
       </c>
       <c r="D18">
-        <v>0.1675261051654644</v>
+        <v>0.1675261051651944</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.940451136087034</v>
+        <v>3.940451136087006</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>1.598862090670821</v>
       </c>
       <c r="I18">
-        <v>3.117037130907022</v>
+        <v>3.117037130906979</v>
       </c>
       <c r="J18">
         <v>1.203574873368922</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.599944913609249</v>
+        <v>3.599944913609022</v>
       </c>
       <c r="C19">
-        <v>1.558482036045746</v>
+        <v>1.55848203604603</v>
       </c>
       <c r="D19">
-        <v>0.1659366906363573</v>
+        <v>0.1659366906363999</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.902726749041108</v>
+        <v>3.902726749041051</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>1.585394417644096</v>
       </c>
       <c r="I19">
-        <v>3.081274296217885</v>
+        <v>3.08127429621787</v>
       </c>
       <c r="J19">
-        <v>1.19164007785993</v>
+        <v>1.191640077859944</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.760995121433268</v>
+        <v>3.760995121432984</v>
       </c>
       <c r="C20">
-        <v>1.631128117370451</v>
+        <v>1.631128117370395</v>
       </c>
       <c r="D20">
-        <v>0.1731554539833979</v>
+        <v>0.1731554539835543</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.073986373568061</v>
+        <v>4.073986373568005</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1.646603645214157</v>
       </c>
       <c r="I20">
-        <v>3.244027304305831</v>
+        <v>3.244027304305803</v>
       </c>
       <c r="J20">
         <v>1.245642502237601</v>
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.318325720814357</v>
+        <v>4.3183257208143</v>
       </c>
       <c r="C21">
-        <v>1.88459800615243</v>
+        <v>1.884598006152544</v>
       </c>
       <c r="D21">
-        <v>0.1988009002684379</v>
+        <v>0.1988009002685658</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.864212786343842</v>
+        <v>1.864212786343856</v>
       </c>
       <c r="I21">
-        <v>3.828347607766673</v>
+        <v>3.828347607766702</v>
       </c>
       <c r="J21">
         <v>1.433008146987348</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.697643689804863</v>
+        <v>4.697643689804806</v>
       </c>
       <c r="C22">
-        <v>2.059037187651086</v>
+        <v>2.059037187651199</v>
       </c>
       <c r="D22">
-        <v>0.2169502005002357</v>
+        <v>0.2169502005004631</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.102272394018854</v>
+        <v>5.102272394018883</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.01733661309683</v>
+        <v>2.017336613096845</v>
       </c>
       <c r="I22">
         <v>4.246693328266247</v>
@@ -1210,7 +1210,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.493595478101383</v>
+        <v>4.49359547810127</v>
       </c>
       <c r="C23">
         <v>1.964999409733878</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.873582260808377</v>
+        <v>4.873582260808405</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.934466335120518</v>
+        <v>1.934466335120533</v>
       </c>
       <c r="I23">
-        <v>4.019424796175329</v>
+        <v>4.019424796175343</v>
       </c>
       <c r="J23">
-        <v>1.492092306287347</v>
+        <v>1.492092306287333</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.75209654557608</v>
+        <v>3.752096545576023</v>
       </c>
       <c r="C24">
-        <v>1.627107325985435</v>
+        <v>1.627107325985889</v>
       </c>
       <c r="D24">
-        <v>0.1727545341862537</v>
+        <v>0.1727545341864953</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.064480875021189</v>
+        <v>4.064480875021218</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.643201745501656</v>
+        <v>1.643201745501699</v>
       </c>
       <c r="I24">
-        <v>3.234966647573486</v>
+        <v>3.234966647573458</v>
       </c>
       <c r="J24">
-        <v>1.242657078732179</v>
+        <v>1.242657078732208</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.999329088688796</v>
+        <v>2.999329088688626</v>
       </c>
       <c r="C25">
         <v>1.28981334160494</v>
       </c>
       <c r="D25">
-        <v>0.1396357994108683</v>
+        <v>0.1396357994108754</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>1.364035257154995</v>
       </c>
       <c r="I25">
-        <v>2.496018733746922</v>
+        <v>2.496018733746908</v>
       </c>
       <c r="J25">
-        <v>0.9907743936734903</v>
+        <v>0.9907743936735187</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.471055300160003</v>
+        <v>2.449983456316488</v>
       </c>
       <c r="C2">
-        <v>1.056340524935536</v>
+        <v>1.043599276422185</v>
       </c>
       <c r="D2">
-        <v>0.1171579052073284</v>
+        <v>0.1202752815727095</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.749988273028038</v>
+        <v>2.754640965282505</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007705692489311017</v>
       </c>
       <c r="H2">
-        <v>1.178956285287171</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.007175646837084</v>
+        <v>1.189108795979166</v>
       </c>
       <c r="J2">
-        <v>0.8147695433560855</v>
+        <v>1.997731807738859</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8069726078959363</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.123963023633337</v>
+        <v>2.105903893374318</v>
       </c>
       <c r="C3">
-        <v>0.9043437412884998</v>
+        <v>0.8934305180111721</v>
       </c>
       <c r="D3">
-        <v>0.1026390141635858</v>
+        <v>0.1056627388488067</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.413654359384822</v>
+        <v>2.422860322233987</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007805674883643361</v>
       </c>
       <c r="H3">
-        <v>1.0627836707353</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.698104384017952</v>
+        <v>1.074953277027092</v>
       </c>
       <c r="J3">
-        <v>0.6994599045046428</v>
+        <v>1.690418228609289</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6927798219947547</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.91485240572635</v>
+        <v>1.898619680676319</v>
       </c>
       <c r="C4">
-        <v>0.8133015139254951</v>
+        <v>0.8034929478232016</v>
       </c>
       <c r="D4">
-        <v>0.09396378759748814</v>
+        <v>0.09692787230621747</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.215652123305858</v>
+        <v>2.227590892226431</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007867974547921718</v>
       </c>
       <c r="H4">
-        <v>0.9950991840383949</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.516310796172405</v>
+        <v>1.008484595154982</v>
       </c>
       <c r="J4">
-        <v>0.630115530412354</v>
+        <v>1.509603839087504</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.624111826830358</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.830469373617944</v>
+        <v>1.814977824698389</v>
       </c>
       <c r="C5">
-        <v>0.7766756656995142</v>
+        <v>0.7673146307838863</v>
       </c>
       <c r="D5">
-        <v>0.09047515650333793</v>
+        <v>0.09341444304764934</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.136805086383177</v>
+        <v>2.149846828074672</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007893631257783946</v>
       </c>
       <c r="H5">
-        <v>0.9683162780044157</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.44386898343825</v>
+        <v>0.9821935025674406</v>
       </c>
       <c r="J5">
-        <v>0.6021595065514376</v>
+        <v>1.4375414672392</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5964301427020402</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816503116830347</v>
+        <v>1.801134524853666</v>
       </c>
       <c r="C6">
-        <v>0.7706199658044</v>
+        <v>0.7613331322239389</v>
       </c>
       <c r="D6">
-        <v>0.08989833255782287</v>
+        <v>0.09283347233420614</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.123815739719859</v>
+        <v>2.1370401185427</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007897908864537731</v>
       </c>
       <c r="H6">
-        <v>0.9639140927233996</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.431929578227283</v>
+        <v>0.9778728168316846</v>
       </c>
       <c r="J6">
-        <v>0.5975339818881977</v>
+        <v>1.42566402373879</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5918501216963605</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.913711237302635</v>
+        <v>1.89748851722922</v>
       </c>
       <c r="C7">
-        <v>0.8128057656483634</v>
+        <v>0.8030032435429177</v>
       </c>
       <c r="D7">
-        <v>0.09391656631206047</v>
+        <v>0.09688031854652479</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.21458167971025</v>
+        <v>2.226535360749409</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007868319423865282</v>
       </c>
       <c r="H7">
-        <v>0.9947348899283099</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.515327618360544</v>
+        <v>1.008126946056834</v>
       </c>
       <c r="J7">
-        <v>0.6297373597648672</v>
+        <v>1.508625851434616</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6237373599743918</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.350433093504989</v>
+        <v>2.330406739009277</v>
       </c>
       <c r="C8">
-        <v>1.003393348980609</v>
+        <v>0.9912873082003273</v>
       </c>
       <c r="D8">
-        <v>0.1120930922628531</v>
+        <v>0.11517865593229</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.63206155284189</v>
+        <v>2.638300686716178</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007740003551503165</v>
       </c>
       <c r="H8">
-        <v>1.138067442774783</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.898712182930169</v>
+        <v>1.148921526926799</v>
       </c>
       <c r="J8">
-        <v>0.7746673626702574</v>
+        <v>1.889898942865955</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7672581700790033</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.248044567306579</v>
+        <v>3.220213051062274</v>
       </c>
       <c r="C9">
-        <v>1.400644712154531</v>
+        <v>1.383774461783617</v>
       </c>
       <c r="D9">
-        <v>0.1504176902761145</v>
+        <v>0.153721145515334</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.534284567266354</v>
+        <v>3.528520953682801</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007493426299453555</v>
       </c>
       <c r="H9">
-        <v>1.454348850877238</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.73437382976266</v>
+        <v>1.45992752450303</v>
       </c>
       <c r="J9">
-        <v>1.073853288114165</v>
+        <v>2.720280023218294</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.063544852656605</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.948814013568722</v>
+        <v>3.914732541996557</v>
       </c>
       <c r="C10">
-        <v>1.716182768634212</v>
+        <v>1.695459621468729</v>
       </c>
       <c r="D10">
-        <v>0.1816767275335422</v>
+        <v>0.1851157580184832</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.27577808597573</v>
+        <v>4.260143939463717</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007311563417814858</v>
       </c>
       <c r="H10">
-        <v>1.718943090778936</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3.43717620378753</v>
+        <v>1.720241214281941</v>
       </c>
       <c r="J10">
-        <v>1.30869905190707</v>
+        <v>3.417781363228983</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.296061006581638</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.281401903568337</v>
+        <v>4.244260489286717</v>
       </c>
       <c r="C11">
-        <v>1.867703072290567</v>
+        <v>1.845080687682639</v>
       </c>
       <c r="D11">
-        <v>0.197066598789533</v>
+        <v>0.2005559600057722</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.638530694767837</v>
+        <v>4.617981400782639</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007227522094119191</v>
       </c>
       <c r="H11">
-        <v>1.849522586025259</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3.788561811329132</v>
+        <v>1.848709531783882</v>
       </c>
       <c r="J11">
-        <v>1.420571041914471</v>
+        <v>3.766163315170274</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.4067896188117</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.409867511647349</v>
+        <v>4.371522851775637</v>
       </c>
       <c r="C12">
-        <v>1.926548487491402</v>
+        <v>1.903176891429609</v>
       </c>
       <c r="D12">
-        <v>0.2031243217329006</v>
+        <v>0.206630109373819</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.780498537953804</v>
+        <v>4.758001699550704</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007195377249516269</v>
       </c>
       <c r="H12">
-        <v>1.900798142309782</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3.927681849428652</v>
+        <v>1.899152450003413</v>
       </c>
       <c r="J12">
-        <v>1.46385735605368</v>
+        <v>3.90402080700629</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.449625800625725</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.38207779352274</v>
+        <v>4.343994527032351</v>
       </c>
       <c r="C13">
-        <v>1.913803651978526</v>
+        <v>1.890594930417706</v>
       </c>
       <c r="D13">
-        <v>0.201808214258449</v>
+        <v>0.2053106045932225</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.749700561600179</v>
+        <v>4.727627516996534</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007202316996191667</v>
       </c>
       <c r="H13">
-        <v>1.889666907347419</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>3.897420530060188</v>
+        <v>1.888202210425447</v>
       </c>
       <c r="J13">
-        <v>1.45449005687702</v>
+        <v>3.874037829030442</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.440356314013144</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.291916691258677</v>
+        <v>4.254677273570735</v>
       </c>
       <c r="C14">
-        <v>1.87251272599616</v>
+        <v>1.849829369459485</v>
       </c>
       <c r="D14">
-        <v>0.1975599249382896</v>
+        <v>0.2010506984580616</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.650111872215632</v>
+        <v>4.629404264165061</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007224884835657086</v>
       </c>
       <c r="H14">
-        <v>1.853702001116162</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>3.799875328968966</v>
+        <v>1.852821179350798</v>
       </c>
       <c r="J14">
-        <v>1.424112400280535</v>
+        <v>3.777375773171372</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.410294325527957</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.23703730087675</v>
+        <v>4.200308479344585</v>
       </c>
       <c r="C15">
-        <v>1.847423117899382</v>
+        <v>1.825057325816658</v>
       </c>
       <c r="D15">
-        <v>0.1949898974032322</v>
+        <v>0.1984731715758556</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.589742771306902</v>
+        <v>4.569859370083719</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007238661997492901</v>
       </c>
       <c r="H15">
-        <v>1.831922883392764</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>3.740968779288892</v>
+        <v>1.831395029742765</v>
       </c>
       <c r="J15">
-        <v>1.40563222460392</v>
+        <v>3.718992347810257</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.392005082554064</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.927399046575317</v>
+        <v>3.893512162931358</v>
       </c>
       <c r="C16">
-        <v>1.706466515987529</v>
+        <v>1.685863854242541</v>
       </c>
       <c r="D16">
-        <v>0.1806992756961421</v>
+        <v>0.1841347166992193</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.252658028601587</v>
+        <v>4.237334617490859</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007317018936601268</v>
       </c>
       <c r="H16">
-        <v>1.710643476708654</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3.414966681934743</v>
+        <v>1.7120755329872</v>
       </c>
       <c r="J16">
-        <v>1.301505087511288</v>
+        <v>3.395753231872433</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.288939687814349</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.741320625536673</v>
+        <v>3.709113684904025</v>
       </c>
       <c r="C17">
-        <v>1.622239340681233</v>
+        <v>1.602675442112911</v>
       </c>
       <c r="D17">
-        <v>0.1722693610666823</v>
+        <v>0.1756720161383925</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.052976678872085</v>
+        <v>4.040326833061528</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007364670294833051</v>
       </c>
       <c r="H17">
-        <v>1.639085241616641</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>3.224005220602322</v>
+        <v>1.641671897554616</v>
       </c>
       <c r="J17">
-        <v>1.239042069023242</v>
+        <v>3.206312227814919</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.227103530927351</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.635553507065708</v>
+        <v>3.604293447290104</v>
       </c>
       <c r="C18">
-        <v>1.574521770413185</v>
+        <v>1.555542239431418</v>
       </c>
       <c r="D18">
-        <v>0.1675261051651944</v>
+        <v>0.1709089194570907</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.940451136087006</v>
+        <v>3.929300999433991</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007391964400008666</v>
       </c>
       <c r="H18">
-        <v>1.598862090670821</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>3.117037130906979</v>
+        <v>1.602098150797403</v>
       </c>
       <c r="J18">
-        <v>1.203574873368922</v>
+        <v>3.10016612861412</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.191989414644794</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.599944913609022</v>
+        <v>3.569002450025948</v>
       </c>
       <c r="C19">
-        <v>1.55848203604603</v>
+        <v>1.539698330218982</v>
       </c>
       <c r="D19">
-        <v>0.1659366906363999</v>
+        <v>0.1693126396418734</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.902726749041051</v>
+        <v>3.892078466732698</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007401189607473507</v>
       </c>
       <c r="H19">
-        <v>1.585394417644096</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>3.08127429621787</v>
+        <v>1.588848067953123</v>
       </c>
       <c r="J19">
-        <v>1.191640077859944</v>
+        <v>3.064673509615645</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.18017300762881</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.760995121432984</v>
+        <v>3.728611433935896</v>
       </c>
       <c r="C20">
-        <v>1.631128117370395</v>
+        <v>1.611455050428788</v>
       </c>
       <c r="D20">
-        <v>0.1731554539835543</v>
+        <v>0.1765617062888509</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.073986373568005</v>
+        <v>4.061056011978252</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007359610328039091</v>
       </c>
       <c r="H20">
-        <v>1.646603645214157</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>3.244027304305803</v>
+        <v>1.649068970606393</v>
       </c>
       <c r="J20">
-        <v>1.245642502237601</v>
+        <v>3.226178123494265</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.233638038200056</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.3183257208143</v>
+        <v>4.280839786290471</v>
       </c>
       <c r="C21">
-        <v>1.884598006152544</v>
+        <v>1.861761241699412</v>
       </c>
       <c r="D21">
-        <v>0.1988009002685658</v>
+        <v>0.202295168696196</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.6792297188737</v>
+        <v>4.658123644520828</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007218266055954133</v>
       </c>
       <c r="H21">
-        <v>1.864212786343856</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3.828347607766702</v>
+        <v>1.863161463017306</v>
       </c>
       <c r="J21">
-        <v>1.433008146987348</v>
+        <v>3.805592468603379</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.419097870211161</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.697643689804806</v>
+        <v>4.656552831312297</v>
       </c>
       <c r="C22">
-        <v>2.059037187651199</v>
+        <v>2.033950514334322</v>
       </c>
       <c r="D22">
-        <v>0.2169502005004631</v>
+        <v>0.2204855944624313</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.102272394018883</v>
+        <v>5.075299418806679</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007123928861352762</v>
       </c>
       <c r="H22">
-        <v>2.017336613096845</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>4.246693328266247</v>
+        <v>2.013785785668503</v>
       </c>
       <c r="J22">
-        <v>1.560979266029221</v>
+        <v>4.21996615506616</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.54571921752887</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.49359547810127</v>
+        <v>4.454459394556864</v>
       </c>
       <c r="C23">
-        <v>1.964999409733878</v>
+        <v>1.941134283434735</v>
       </c>
       <c r="D23">
-        <v>0.2071092680718607</v>
+        <v>0.2106247452881291</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.873582260808405</v>
+        <v>4.849799899523703</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007174512816119105</v>
       </c>
       <c r="H23">
-        <v>1.934466335120533</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.019424796175343</v>
+        <v>1.932272268657528</v>
       </c>
       <c r="J23">
-        <v>1.492092306287333</v>
+        <v>3.994906981493216</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.477564515054652</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.752096545576023</v>
+        <v>3.71979282341016</v>
       </c>
       <c r="C24">
-        <v>1.627107325985889</v>
+        <v>1.607483653414192</v>
       </c>
       <c r="D24">
-        <v>0.1727545341864953</v>
+        <v>0.1761591632066626</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.064480875021218</v>
+        <v>4.051677449241879</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007361898244931533</v>
       </c>
       <c r="H24">
-        <v>1.643201745501699</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>3.234966647573458</v>
+        <v>1.64572196859109</v>
       </c>
       <c r="J24">
-        <v>1.242657078732208</v>
+        <v>3.217188239078254</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.23068244223208</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.999329088688626</v>
+        <v>2.973672339797815</v>
       </c>
       <c r="C25">
-        <v>1.28981334160494</v>
+        <v>1.274275727987003</v>
       </c>
       <c r="D25">
-        <v>0.1396357994108754</v>
+        <v>0.1428833545114685</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.278747706306802</v>
+        <v>3.276365035322669</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007559933461894763</v>
       </c>
       <c r="H25">
-        <v>1.364035257154995</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.496018733746908</v>
+        <v>1.371092269660636</v>
       </c>
       <c r="J25">
-        <v>0.9907743936735187</v>
+        <v>2.483534457356342</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9812748570356575</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.449983456316488</v>
+        <v>1.88763089841828</v>
       </c>
       <c r="C2">
-        <v>1.043599276422185</v>
+        <v>0.2808778509620993</v>
       </c>
       <c r="D2">
-        <v>0.1202752815727095</v>
+        <v>0.3956372210440975</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.754640965282505</v>
+        <v>6.701875317860839</v>
       </c>
       <c r="G2">
-        <v>0.0007705692489311017</v>
+        <v>0.0008191518455153965</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.189108795979166</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.997731807738859</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8069726078959363</v>
+        <v>0.42535968941867</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1865191932387518</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.3521692721642324</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.105903893374318</v>
+        <v>1.635695132870637</v>
       </c>
       <c r="C3">
-        <v>0.8934305180111721</v>
+        <v>0.2451230294417144</v>
       </c>
       <c r="D3">
-        <v>0.1056627388488067</v>
+        <v>0.3589251447629067</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.422860322233987</v>
+        <v>5.956570847798815</v>
       </c>
       <c r="G3">
-        <v>0.0007805674883643361</v>
+        <v>0.0008296484526120038</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.074953277027092</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.690418228609289</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6927798219947547</v>
+        <v>0.3644200283998913</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1701444251884183</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.3089302745291178</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.898619680676319</v>
+        <v>1.485655249757741</v>
       </c>
       <c r="C4">
-        <v>0.8034929478232016</v>
+        <v>0.2236832311058521</v>
       </c>
       <c r="D4">
-        <v>0.09692787230621747</v>
+        <v>0.3368176377921515</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.227590892226431</v>
+        <v>5.508809129231565</v>
       </c>
       <c r="G4">
-        <v>0.0007867974547921718</v>
+        <v>0.0008362323689357385</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.008484595154982</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1.509603839087504</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.624111826830358</v>
+        <v>0.3280773760003939</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1603834626025957</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.2831799261271826</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814977824698389</v>
+        <v>1.425538493741698</v>
       </c>
       <c r="C5">
-        <v>0.7673146307838863</v>
+        <v>0.2150500369352812</v>
       </c>
       <c r="D5">
-        <v>0.09341444304764934</v>
+        <v>0.3278989362259068</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.149846828074672</v>
+        <v>5.328462118187304</v>
       </c>
       <c r="G5">
-        <v>0.0007893631257783946</v>
+        <v>0.00083895311148363</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9821935025674406</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.4375414672392</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5964301427020402</v>
+        <v>0.3135012499640268</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1564719901834977</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.2728641220926598</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801134524853666</v>
+        <v>1.415614183398816</v>
       </c>
       <c r="C6">
-        <v>0.7613331322239389</v>
+        <v>0.2136220717577402</v>
       </c>
       <c r="D6">
-        <v>0.09283347233420614</v>
+        <v>0.3264229300824013</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.1370401185427</v>
+        <v>5.298633801179079</v>
       </c>
       <c r="G6">
-        <v>0.0007897908864537731</v>
+        <v>0.0008394072452838404</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9778728168316846</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.42566402373879</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5918501216963605</v>
+        <v>0.3110940231093764</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1558262845714538</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.2711612887416273</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.89748851722922</v>
+        <v>1.484840520117842</v>
       </c>
       <c r="C7">
-        <v>0.8030032435429177</v>
+        <v>0.2235664126420716</v>
       </c>
       <c r="D7">
-        <v>0.09688031854652479</v>
+        <v>0.3366970150374584</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.226535360749409</v>
+        <v>5.506368774115003</v>
       </c>
       <c r="G7">
-        <v>0.0007868319423865282</v>
+        <v>0.0008362689055381222</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.008126946056834</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1.508625851434616</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6237373599743918</v>
+        <v>0.3278798959956717</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1603304525209737</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.2830401131024232</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.330406739009277</v>
+        <v>1.799707191132569</v>
       </c>
       <c r="C8">
-        <v>0.9912873082003273</v>
+        <v>0.2684266719053028</v>
       </c>
       <c r="D8">
-        <v>0.11517865593229</v>
+        <v>0.3828769264039664</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.638300686716178</v>
+        <v>6.442620311188307</v>
       </c>
       <c r="G8">
-        <v>0.0007740003551503165</v>
+        <v>0.0008227440092669287</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.148921526926799</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1.889898942865955</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7672581700790033</v>
+        <v>0.4041015109308645</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1808075497679837</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3370800329963473</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.220213051062274</v>
+        <v>2.46143317870866</v>
       </c>
       <c r="C9">
-        <v>1.383774461783617</v>
+        <v>0.3617987652240231</v>
       </c>
       <c r="D9">
-        <v>0.153721145515334</v>
+        <v>0.4778389977097532</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.528520953682801</v>
+        <v>8.375213168739435</v>
       </c>
       <c r="G9">
-        <v>0.0007493426299453555</v>
+        <v>0.0007971814478471407</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.45992752450303</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.720280023218294</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.063544852656605</v>
+        <v>0.5639743840441085</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2236730509498273</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.4505750722777719</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.914732541996557</v>
+        <v>2.986554878350887</v>
       </c>
       <c r="C10">
-        <v>1.695459621468729</v>
+        <v>0.4358655779365819</v>
       </c>
       <c r="D10">
-        <v>0.1851157580184832</v>
+        <v>0.551838282613005</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.260143939463717</v>
+        <v>9.883592889167517</v>
       </c>
       <c r="G10">
-        <v>0.0007311563417814858</v>
+        <v>0.0007787562915021917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.720241214281941</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>3.417781363228983</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.296061006581638</v>
+        <v>0.690824663317656</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2574320385313769</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.5404624238165781</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.244260489286717</v>
+        <v>3.237156134810505</v>
       </c>
       <c r="C11">
-        <v>1.845080687682639</v>
+        <v>0.4713494142666264</v>
       </c>
       <c r="D11">
-        <v>0.2005559600057722</v>
+        <v>0.5868377425073277</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.617981400782639</v>
+        <v>10.59699115947791</v>
       </c>
       <c r="G11">
-        <v>0.0007227522094119191</v>
+        <v>0.0007703897902836738</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.848709531783882</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>3.766163315170274</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.4067896188117</v>
+        <v>0.7514042046346603</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2734455516493028</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.5832847180665581</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.371522851775637</v>
+        <v>3.334066979692182</v>
       </c>
       <c r="C12">
-        <v>1.903176891429609</v>
+        <v>0.4851056855067384</v>
       </c>
       <c r="D12">
-        <v>0.206630109373819</v>
+        <v>0.6003252449877436</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.758001699550704</v>
+        <v>10.87185368741251</v>
       </c>
       <c r="G12">
-        <v>0.0007195377249516269</v>
+        <v>0.0007672176180372661</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.899152450003413</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>3.90402080700629</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.449625800625725</v>
+        <v>0.7748421335697557</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2796201238931957</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.5998304522917479</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.343994527032351</v>
+        <v>3.313100082411097</v>
       </c>
       <c r="C13">
-        <v>1.890594930417706</v>
+        <v>0.4821277116415956</v>
       </c>
       <c r="D13">
-        <v>0.2053106045932225</v>
+        <v>0.5974093217830614</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.727627516996534</v>
+        <v>10.81243325846373</v>
       </c>
       <c r="G13">
-        <v>0.0007202316996191667</v>
+        <v>0.0007679010875378705</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.888202210425447</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3.874037829030442</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.440356314013144</v>
+        <v>0.7697707082570773</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.27828511321691</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.5962514351826655</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.254677273570735</v>
+        <v>3.245086604328776</v>
       </c>
       <c r="C14">
-        <v>1.849829369459485</v>
+        <v>0.4724743548201928</v>
       </c>
       <c r="D14">
-        <v>0.2010506984580616</v>
+        <v>0.5879424136061573</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.629404264165061</v>
+        <v>10.61950472133464</v>
       </c>
       <c r="G14">
-        <v>0.0007224884835657086</v>
+        <v>0.0007701289320165039</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.852821179350798</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>3.777375773171372</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.410294325527957</v>
+        <v>0.7533219429561555</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2739512183885751</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.5846390042456449</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.200308479344585</v>
+        <v>3.203699345490236</v>
       </c>
       <c r="C15">
-        <v>1.825057325816658</v>
+        <v>0.4666050157076</v>
       </c>
       <c r="D15">
-        <v>0.1984731715758556</v>
+        <v>0.5821754892698436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.569859370083719</v>
+        <v>10.5019703729356</v>
       </c>
       <c r="G15">
-        <v>0.0007238661997492901</v>
+        <v>0.0007714928353399544</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.831395029742765</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>3.718992347810257</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.392005082554064</v>
+        <v>0.743314188214697</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2713115128259602</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.5775707106635934</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.893512162931358</v>
+        <v>2.970440116806628</v>
       </c>
       <c r="C16">
-        <v>1.685863854242541</v>
+        <v>0.4335876813931492</v>
       </c>
       <c r="D16">
-        <v>0.1841347166992193</v>
+        <v>0.5495812950811683</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.237334617490859</v>
+        <v>9.837583792784415</v>
       </c>
       <c r="G16">
-        <v>0.0007317018936601268</v>
+        <v>0.0007793028658458504</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.7120755329872</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3.395753231872433</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.288939687814349</v>
+        <v>0.6869303725254881</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2564000534521256</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.5377070131744262</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.709113684904025</v>
+        <v>2.830561248282436</v>
       </c>
       <c r="C17">
-        <v>1.602675442112911</v>
+        <v>0.4138316943200806</v>
       </c>
       <c r="D17">
-        <v>0.1756720161383925</v>
+        <v>0.5299557590041672</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.040326833061528</v>
+        <v>9.437505458817299</v>
       </c>
       <c r="G17">
-        <v>0.0007364670294833051</v>
+        <v>0.0007840939005986583</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.641671897554616</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3.206312227814919</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.227103530927351</v>
+        <v>0.6531325193028579</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2474312163886339</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.5137811076161114</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.604293447290104</v>
+        <v>2.751187169635159</v>
       </c>
       <c r="C18">
-        <v>1.555542239431418</v>
+        <v>0.4026327903809914</v>
       </c>
       <c r="D18">
-        <v>0.1709089194570907</v>
+        <v>0.5187906255781058</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.929300999433991</v>
+        <v>9.20989894349708</v>
       </c>
       <c r="G18">
-        <v>0.0007391964400008666</v>
+        <v>0.00078685143006881</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.602098150797403</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>3.10016612861412</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.191989414644794</v>
+        <v>0.6339576281131727</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2423332506373441</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.5001978323743046</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.569002450025948</v>
+        <v>2.724488959229234</v>
       </c>
       <c r="C19">
-        <v>1.539698330218982</v>
+        <v>0.3988675366479271</v>
       </c>
       <c r="D19">
-        <v>0.1693126396418734</v>
+        <v>0.5150302606692776</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.892078466732698</v>
+        <v>9.13324382547529</v>
       </c>
       <c r="G19">
-        <v>0.0007401189607473507</v>
+        <v>0.0007877855708850272</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.588848067953123</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>3.064673509615645</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.18017300762881</v>
+        <v>0.6275084735663015</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2406171346472377</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.495627942064111</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.728611433935896</v>
+        <v>2.845337562767895</v>
       </c>
       <c r="C20">
-        <v>1.611455050428788</v>
+        <v>0.415917345414357</v>
       </c>
       <c r="D20">
-        <v>0.1765617062888509</v>
+        <v>0.5320319251986234</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.061056011978252</v>
+        <v>9.479829554243793</v>
       </c>
       <c r="G20">
-        <v>0.0007359610328039091</v>
+        <v>0.0007835837362935304</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.649068970606393</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3.226178123494265</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.233638038200056</v>
+        <v>0.6567023946061497</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2483795758075047</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.5163092615439311</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.280839786290471</v>
+        <v>3.265006256521929</v>
       </c>
       <c r="C21">
-        <v>1.861761241699412</v>
+        <v>0.4753005616398838</v>
       </c>
       <c r="D21">
-        <v>0.202295168696196</v>
+        <v>0.5907163557099295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.658123644520828</v>
+        <v>10.67603751966169</v>
       </c>
       <c r="G21">
-        <v>0.0007218266055954133</v>
+        <v>0.0007694747219262332</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.863161463017306</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>3.805592468603379</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.419097870211161</v>
+        <v>0.7581390857929904</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.275221044134824</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.5880404445252623</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.656552831312297</v>
+        <v>3.551217972830216</v>
       </c>
       <c r="C22">
-        <v>2.033950514334322</v>
+        <v>0.516009974736221</v>
       </c>
       <c r="D22">
-        <v>0.2204855944624313</v>
+        <v>0.630458660468264</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.075299418806679</v>
+        <v>11.48578214461946</v>
       </c>
       <c r="G22">
-        <v>0.0007123928861352762</v>
+        <v>0.0007602269169780163</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.013785785668503</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.21996615506616</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.54571921752887</v>
+        <v>0.8273861598918018</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2934177345828601</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.636874707104937</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.454459394556864</v>
+        <v>3.39724502295195</v>
       </c>
       <c r="C23">
-        <v>1.941134283434735</v>
+        <v>0.4940851468155927</v>
       </c>
       <c r="D23">
-        <v>0.2106247452881291</v>
+        <v>0.6091046262637576</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.849799899523703</v>
+        <v>11.05074698165544</v>
       </c>
       <c r="G23">
-        <v>0.0007174512816119105</v>
+        <v>0.0007651674123327502</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.932272268657528</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3.994906981493216</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.477564515054652</v>
+        <v>0.7901254836039797</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2836398716769821</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.6106125026066351</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.71979282341016</v>
+        <v>2.838653962694366</v>
       </c>
       <c r="C24">
-        <v>1.607483653414192</v>
+        <v>0.4149739315694063</v>
       </c>
       <c r="D24">
-        <v>0.1761591632066626</v>
+        <v>0.5310929264374522</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.051677449241879</v>
+        <v>9.460687401708299</v>
       </c>
       <c r="G24">
-        <v>0.0007361898244931533</v>
+        <v>0.0007838143714400224</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.64572196859109</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>3.217188239078254</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.23068244223208</v>
+        <v>0.6550876629335107</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2479506419912099</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.5151657510723666</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.973672339797815</v>
+        <v>2.276549372610646</v>
       </c>
       <c r="C25">
-        <v>1.274275727987003</v>
+        <v>0.3357571902290886</v>
       </c>
       <c r="D25">
-        <v>0.1428833545114685</v>
+        <v>0.4515312490783714</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.276365035322669</v>
+        <v>7.839246579738727</v>
       </c>
       <c r="G25">
-        <v>0.0007559933461894763</v>
+        <v>0.0008040158305098188</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.371092269660636</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.483534457356342</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9812748570356575</v>
+        <v>0.5193233391700502</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2117282768100495</v>
       </c>
       <c r="M25">
+        <v>0.4188849055195192</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.88763089841828</v>
+        <v>3.579282141667534</v>
       </c>
       <c r="C2">
-        <v>0.2808778509620993</v>
+        <v>0.9556305302517103</v>
       </c>
       <c r="D2">
-        <v>0.3956372210440975</v>
+        <v>0.08736095344712425</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.701875317860839</v>
+        <v>0.1944560263263426</v>
       </c>
       <c r="G2">
-        <v>0.0008191518455153965</v>
+        <v>0.0007775506879773661</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0485058303053551</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.42535968941867</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1865191932387518</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3521692721642324</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.400354351829364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.635695132870637</v>
+        <v>3.121937419384722</v>
       </c>
       <c r="C3">
-        <v>0.2451230294417144</v>
+        <v>0.8385326138361791</v>
       </c>
       <c r="D3">
-        <v>0.3589251447629067</v>
+        <v>0.07649934952318205</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.956570847798815</v>
+        <v>0.1827537480072401</v>
       </c>
       <c r="G3">
-        <v>0.0008296484526120038</v>
+        <v>0.000781266456218215</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.05944394565541422</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3644200283998913</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1701444251884183</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3089302745291178</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.3997231172378548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.485655249757741</v>
+        <v>2.841001221895226</v>
       </c>
       <c r="C4">
-        <v>0.2236832311058521</v>
+        <v>0.7665779580256071</v>
       </c>
       <c r="D4">
-        <v>0.3368176377921515</v>
+        <v>0.0698242363534689</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.508809129231565</v>
+        <v>0.1765987514641019</v>
       </c>
       <c r="G4">
-        <v>0.0008362323689357385</v>
+        <v>0.0007836187429473454</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.06690258390509585</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3280773760003939</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1603834626025957</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2831799261271826</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.4026717851877919</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.425538493741698</v>
+        <v>2.726457555244735</v>
       </c>
       <c r="C5">
-        <v>0.2150500369352812</v>
+        <v>0.737235145460005</v>
       </c>
       <c r="D5">
-        <v>0.3278989362259068</v>
+        <v>0.06710196576261751</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.328462118187304</v>
+        <v>0.1743333999854997</v>
       </c>
       <c r="G5">
-        <v>0.00083895311148363</v>
+        <v>0.0007845954628450384</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.07011925963933907</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3135012499640268</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1564719901834977</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2728641220926598</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.4046623048488698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.415614183398816</v>
+        <v>2.707433257434673</v>
       </c>
       <c r="C6">
-        <v>0.2136220717577402</v>
+        <v>0.732361360225525</v>
       </c>
       <c r="D6">
-        <v>0.3264229300824013</v>
+        <v>0.06664979119977232</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.298633801179079</v>
+        <v>0.1739714484287838</v>
       </c>
       <c r="G6">
-        <v>0.0008394072452838404</v>
+        <v>0.0007847587520921081</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.07066381997080834</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3110940231093764</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1558262845714538</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2711612887416273</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.4050390591045101</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.484840520117842</v>
+        <v>2.839456724568834</v>
       </c>
       <c r="C7">
-        <v>0.2235664126420716</v>
+        <v>0.7661823227844877</v>
       </c>
       <c r="D7">
-        <v>0.3366970150374584</v>
+        <v>0.06978753213866185</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.506368774115003</v>
+        <v>0.1765672376888325</v>
       </c>
       <c r="G7">
-        <v>0.0008362689055381222</v>
+        <v>0.0007836318413324402</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.06694525981275823</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3278798959956717</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1603304525209737</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2830401131024232</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.402695500154735</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.799707191132569</v>
+        <v>3.421597580210062</v>
       </c>
       <c r="C8">
-        <v>0.2684266719053028</v>
+        <v>0.9152626268174515</v>
       </c>
       <c r="D8">
-        <v>0.3828769264039664</v>
+        <v>0.08361675568158233</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.442620311188307</v>
+        <v>0.1901972633555857</v>
       </c>
       <c r="G8">
-        <v>0.0008227440092669287</v>
+        <v>0.0007788174045264282</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.05211731032351147</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4041015109308645</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1808075497679837</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3370800329963473</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.3994134333275952</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.46143317870866</v>
+        <v>4.563637524242836</v>
       </c>
       <c r="C9">
-        <v>0.3617987652240231</v>
+        <v>1.207503393992283</v>
       </c>
       <c r="D9">
-        <v>0.4778389977097532</v>
+        <v>0.1107180374891215</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.375213168739435</v>
+        <v>0.2258700659535009</v>
       </c>
       <c r="G9">
-        <v>0.0007971814478471407</v>
+        <v>0.0007699215031067031</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02938163429602703</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5639743840441085</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2236730509498273</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4505750722777719</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.4218228754790658</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.986554878350887</v>
+        <v>5.405246835490971</v>
       </c>
       <c r="C10">
-        <v>0.4358655779365819</v>
+        <v>1.422683255832169</v>
       </c>
       <c r="D10">
-        <v>0.551838282613005</v>
+        <v>0.1306659842008742</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.883592889167517</v>
+        <v>0.2586637313605422</v>
       </c>
       <c r="G10">
-        <v>0.0007787562915021917</v>
+        <v>0.0007636935690752369</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01720241611307111</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.690824663317656</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2574320385313769</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5404624238165781</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.4593618045165897</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.237156134810505</v>
+        <v>5.789227895624208</v>
       </c>
       <c r="C11">
-        <v>0.4713494142666264</v>
+        <v>1.52080827427676</v>
       </c>
       <c r="D11">
-        <v>0.5868377425073277</v>
+        <v>0.1397604593841635</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.59699115947791</v>
+        <v>0.2752808665791733</v>
       </c>
       <c r="G11">
-        <v>0.0007703897902836738</v>
+        <v>0.0007609213848499274</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0128002904791133</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7514042046346603</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2734455516493028</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5832847180665581</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.4818445727445635</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.334066979692182</v>
+        <v>5.934842790384778</v>
       </c>
       <c r="C12">
-        <v>0.4851056855067384</v>
+        <v>1.558011583716166</v>
       </c>
       <c r="D12">
-        <v>0.6003252449877436</v>
+        <v>0.1432082073166328</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.87185368741251</v>
+        <v>0.2818417481481461</v>
       </c>
       <c r="G12">
-        <v>0.0007672176180372661</v>
+        <v>0.0007598798855467072</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01131104268400673</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7748421335697557</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2796201238931957</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5998304522917479</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.4912101760483978</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.313100082411097</v>
+        <v>5.903471899338456</v>
       </c>
       <c r="C13">
-        <v>0.4821277116415956</v>
+        <v>1.549996973335851</v>
       </c>
       <c r="D13">
-        <v>0.5974093217830614</v>
+        <v>0.1424654845164923</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.81243325846373</v>
+        <v>0.2804164103649356</v>
       </c>
       <c r="G13">
-        <v>0.0007679010875378705</v>
+        <v>0.000760103831613697</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01162363935318855</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7697707082570773</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.27828511321691</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5962514351826655</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.4891539955843172</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.245086604328776</v>
+        <v>5.801203234768991</v>
       </c>
       <c r="C14">
-        <v>0.4724743548201928</v>
+        <v>1.523868033581721</v>
       </c>
       <c r="D14">
-        <v>0.5879424136061573</v>
+        <v>0.1400440242293541</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.61950472133464</v>
+        <v>0.2758151129398883</v>
       </c>
       <c r="G14">
-        <v>0.0007701289320165039</v>
+        <v>0.0007608355373305784</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01267412293376052</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7533219429561555</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2739512183885751</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5846390042456449</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.4825975682460637</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.203699345490236</v>
+        <v>5.738589492790766</v>
       </c>
       <c r="C15">
-        <v>0.4666050157076</v>
+        <v>1.507869576957091</v>
       </c>
       <c r="D15">
-        <v>0.5821754892698436</v>
+        <v>0.1385613442126328</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.5019703729356</v>
+        <v>0.2730323714697889</v>
       </c>
       <c r="G15">
-        <v>0.0007714928353399544</v>
+        <v>0.0007612847895367934</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.0133411556250248</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.743314188214697</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2713115128259602</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5775707106635934</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.4786948066798971</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.970440116806628</v>
+        <v>5.380179435551156</v>
       </c>
       <c r="C16">
-        <v>0.4335876813931492</v>
+        <v>1.416276290302449</v>
       </c>
       <c r="D16">
-        <v>0.5495812950811683</v>
+        <v>0.1300721245705887</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.837583792784415</v>
+        <v>0.2576139669720376</v>
       </c>
       <c r="G16">
-        <v>0.0007793028658458504</v>
+        <v>0.0007638759224083578</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01751419019006101</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6869303725254881</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2564000534521256</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5377070131744262</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.458007534236188</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.830561248282436</v>
+        <v>5.160627980472839</v>
       </c>
       <c r="C17">
-        <v>0.4138316943200806</v>
+        <v>1.360155541772656</v>
       </c>
       <c r="D17">
-        <v>0.5299557590041672</v>
+        <v>0.12487007314256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.437505458817299</v>
+        <v>0.248607019423396</v>
       </c>
       <c r="G17">
-        <v>0.0007840939005986583</v>
+        <v>0.0007654807630049221</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0203754523209701</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6531325193028579</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2474312163886339</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5137811076161114</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.446752549030748</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.751187169635159</v>
+        <v>5.034450971633419</v>
       </c>
       <c r="C18">
-        <v>0.4026327903809914</v>
+        <v>1.327898104983035</v>
       </c>
       <c r="D18">
-        <v>0.5187906255781058</v>
+        <v>0.1218798144936386</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.20989894349708</v>
+        <v>0.2435848592520813</v>
       </c>
       <c r="G18">
-        <v>0.00078685143006881</v>
+        <v>0.0007664095920054101</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02212741617992825</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6339576281131727</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2423332506373441</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5001978323743046</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.4407830690170869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.724488959229234</v>
+        <v>4.991745949480503</v>
       </c>
       <c r="C19">
-        <v>0.3988675366479271</v>
+        <v>1.316979699037233</v>
       </c>
       <c r="D19">
-        <v>0.5150302606692776</v>
+        <v>0.1208676489206084</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.13324382547529</v>
+        <v>0.2419109428140729</v>
       </c>
       <c r="G19">
-        <v>0.0007877855708850272</v>
+        <v>0.0007667250824669156</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02273843525550667</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6275084735663015</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2406171346472377</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.495627942064111</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.4388462994021012</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.845337562767895</v>
+        <v>5.183988598895894</v>
       </c>
       <c r="C20">
-        <v>0.415917345414357</v>
+        <v>1.366127364045497</v>
       </c>
       <c r="D20">
-        <v>0.5320319251986234</v>
+        <v>0.1254236447898478</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.479829554243793</v>
+        <v>0.2495492622571476</v>
       </c>
       <c r="G20">
-        <v>0.0007835837362935304</v>
+        <v>0.0007653093315887103</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02005977169412865</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6567023946061497</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2483795758075047</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5163092615439311</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.4478979673167913</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.265006256521929</v>
+        <v>5.831235935252323</v>
       </c>
       <c r="C21">
-        <v>0.4753005616398838</v>
+        <v>1.531541407821294</v>
       </c>
       <c r="D21">
-        <v>0.5907163557099295</v>
+        <v>0.1407551525819173</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.67603751966169</v>
+        <v>0.2771591433426366</v>
       </c>
       <c r="G21">
-        <v>0.0007694747219262332</v>
+        <v>0.0007606203973909001</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01236062966515256</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7581390857929904</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.275221044134824</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5880404445252623</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.4844996103657024</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.551217972830216</v>
+        <v>6.255496077203532</v>
       </c>
       <c r="C22">
-        <v>0.516009974736221</v>
+        <v>1.639920136979924</v>
       </c>
       <c r="D22">
-        <v>0.630458660468264</v>
+        <v>0.150798241470298</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.48578214461946</v>
+        <v>0.2967802333910043</v>
       </c>
       <c r="G22">
-        <v>0.0007602269169780163</v>
+        <v>0.0007576038371489021</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.008372053554265624</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8273861598918018</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2934177345828601</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.636874707104937</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.5134247275712482</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.39724502295195</v>
+        <v>6.028929706643396</v>
       </c>
       <c r="C23">
-        <v>0.4940851468155927</v>
+        <v>1.582047608849166</v>
       </c>
       <c r="D23">
-        <v>0.6091046262637576</v>
+        <v>0.1454355980155242</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.05074698165544</v>
+        <v>0.2861554641724453</v>
       </c>
       <c r="G23">
-        <v>0.0007651674123327502</v>
+        <v>0.0007592096194202214</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01040046828747021</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7901254836039797</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2836398716769821</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6106125026066351</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.4975029718296753</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.838653962694366</v>
+        <v>5.173427123405816</v>
       </c>
       <c r="C24">
-        <v>0.4149739315694063</v>
+        <v>1.363427481823351</v>
       </c>
       <c r="D24">
-        <v>0.5310929264374522</v>
+        <v>0.1251733736574465</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.460687401708299</v>
+        <v>0.2491227899935353</v>
       </c>
       <c r="G24">
-        <v>0.0007838143714400224</v>
+        <v>0.0007653868164684585</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02020215871939535</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6550876629335107</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2479506419912099</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5151657510723666</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.4473785682736491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.276549372610646</v>
+        <v>4.25441260297913</v>
       </c>
       <c r="C25">
-        <v>0.3357571902290886</v>
+        <v>1.128403312856676</v>
       </c>
       <c r="D25">
-        <v>0.4515312490783714</v>
+        <v>0.103383660915128</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.839246579738727</v>
+        <v>0.2151494538759664</v>
       </c>
       <c r="G25">
-        <v>0.0008040158305098188</v>
+        <v>0.0007722721535928627</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.03478778757419576</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5193233391700502</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2117282768100495</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4188849055195192</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.4123255253170299</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.579282141667534</v>
+        <v>1.201154884288428</v>
       </c>
       <c r="C2">
-        <v>0.9556305302517103</v>
+        <v>0.3177404093272571</v>
       </c>
       <c r="D2">
-        <v>0.08736095344712425</v>
+        <v>0.02876610486227094</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1944560263263426</v>
+        <v>0.3236978582895986</v>
       </c>
       <c r="G2">
-        <v>0.0007775506879773661</v>
+        <v>0.002372653629534434</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0485058303053551</v>
+        <v>0.2282277210525693</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.400354351829364</v>
+        <v>0.9993314048698494</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.121937419384722</v>
+        <v>1.051038546440168</v>
       </c>
       <c r="C3">
-        <v>0.8385326138361791</v>
+        <v>0.2789609095972594</v>
       </c>
       <c r="D3">
-        <v>0.07649934952318205</v>
+        <v>0.02518192536900443</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1827537480072401</v>
+        <v>0.3273827086035652</v>
       </c>
       <c r="G3">
-        <v>0.000781266456218215</v>
+        <v>0.002375057464057778</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.05944394565541422</v>
+        <v>0.2361230433375314</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3997231172378548</v>
+        <v>1.021985576090842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.841001221895226</v>
+        <v>0.9585017898886576</v>
       </c>
       <c r="C4">
-        <v>0.7665779580256071</v>
+        <v>0.2550418583422527</v>
       </c>
       <c r="D4">
-        <v>0.0698242363534689</v>
+        <v>0.02297188721951215</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1765987514641019</v>
+        <v>0.3300656853817081</v>
       </c>
       <c r="G4">
-        <v>0.0007836187429473454</v>
+        <v>0.002376610789542919</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.06690258390509585</v>
+        <v>0.2412824757097596</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4026717851877919</v>
+        <v>1.037261736567771</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.726457555244735</v>
+        <v>0.9207033607141284</v>
       </c>
       <c r="C5">
-        <v>0.737235145460005</v>
+        <v>0.2452681639283583</v>
       </c>
       <c r="D5">
-        <v>0.06710196576261751</v>
+        <v>0.02206899705085164</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1743333999854997</v>
+        <v>0.3312643757020162</v>
       </c>
       <c r="G5">
-        <v>0.0007845954628450384</v>
+        <v>0.002377263291422302</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.07011925963933907</v>
+        <v>0.2434630977389847</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4046623048488698</v>
+        <v>1.043829181787331</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.707433257434673</v>
+        <v>0.9144216697878846</v>
       </c>
       <c r="C6">
-        <v>0.732361360225525</v>
+        <v>0.243643671622209</v>
       </c>
       <c r="D6">
-        <v>0.06664979119977232</v>
+        <v>0.02191893697894898</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1739714484287838</v>
+        <v>0.3314697695418438</v>
       </c>
       <c r="G6">
-        <v>0.0007847587520921081</v>
+        <v>0.002377372818615185</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.07066381997080834</v>
+        <v>0.2438298984441293</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4050390591045101</v>
+        <v>1.044940335818154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.839456724568834</v>
+        <v>0.9579923835280511</v>
       </c>
       <c r="C7">
-        <v>0.7661823227844877</v>
+        <v>0.2549101531377573</v>
       </c>
       <c r="D7">
-        <v>0.06978753213866185</v>
+        <v>0.02295971967703281</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1765672376888325</v>
+        <v>0.3300814252546687</v>
       </c>
       <c r="G7">
-        <v>0.0007836318413324402</v>
+        <v>0.002376619510314891</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.06694525981275823</v>
+        <v>0.2413115684171009</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.402695500154735</v>
+        <v>1.037348923267047</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.421597580210062</v>
+        <v>1.149472072274534</v>
       </c>
       <c r="C8">
-        <v>0.9152626268174515</v>
+        <v>0.3043921429664067</v>
       </c>
       <c r="D8">
-        <v>0.08361675568158233</v>
+        <v>0.02753225631741429</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1901972633555857</v>
+        <v>0.3248809030367141</v>
       </c>
       <c r="G8">
-        <v>0.0007788174045264282</v>
+        <v>0.002373466448931939</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.05211731032351147</v>
+        <v>0.2308851846948075</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.3994134333275952</v>
+        <v>1.006858181863279</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.563637524242836</v>
+        <v>1.521966455510494</v>
       </c>
       <c r="C9">
-        <v>1.207503393992283</v>
+        <v>0.4005391612835183</v>
       </c>
       <c r="D9">
-        <v>0.1107180374891215</v>
+        <v>0.03642241861982143</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2258700659535009</v>
+        <v>0.3180358742550169</v>
       </c>
       <c r="G9">
-        <v>0.0007699215031067031</v>
+        <v>0.002367894560908106</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02938163429602703</v>
+        <v>0.2129233983883974</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4218228754790658</v>
+        <v>0.9579659265190799</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.405246835490971</v>
+        <v>1.793700222784082</v>
       </c>
       <c r="C10">
-        <v>1.422683255832169</v>
+        <v>0.4706071551510149</v>
       </c>
       <c r="D10">
-        <v>0.1306659842008742</v>
+        <v>0.04290464719974807</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2586637313605422</v>
+        <v>0.3150747288718136</v>
       </c>
       <c r="G10">
-        <v>0.0007636935690752369</v>
+        <v>0.002364169913365688</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01720241611307111</v>
+        <v>0.2012564359015838</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.4593618045165897</v>
+        <v>0.9287689650883379</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.789227895624208</v>
+        <v>1.916876674765831</v>
       </c>
       <c r="C11">
-        <v>1.52080827427676</v>
+        <v>0.5023529229084716</v>
       </c>
       <c r="D11">
-        <v>0.1397604593841635</v>
+        <v>0.04584233398222182</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2752808665791733</v>
+        <v>0.3141817210817237</v>
       </c>
       <c r="G11">
-        <v>0.0007609213848499274</v>
+        <v>0.002362554832210198</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0128002904791133</v>
+        <v>0.1962841619127689</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4818445727445635</v>
+        <v>0.9169634728299627</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.934842790384778</v>
+        <v>1.96345525837603</v>
       </c>
       <c r="C12">
-        <v>1.558011583716166</v>
+        <v>0.5143551002347522</v>
       </c>
       <c r="D12">
-        <v>0.1432082073166328</v>
+        <v>0.04695310438441425</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2818417481481461</v>
+        <v>0.3139092530941809</v>
       </c>
       <c r="G12">
-        <v>0.0007598798855467072</v>
+        <v>0.002361954585517519</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01131104268400673</v>
+        <v>0.1944497522396482</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4912101760483978</v>
+        <v>0.9127067239338515</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.903471899338456</v>
+        <v>1.953426693085248</v>
       </c>
       <c r="C13">
-        <v>1.549996973335851</v>
+        <v>0.5117710852893538</v>
       </c>
       <c r="D13">
-        <v>0.1424654845164923</v>
+        <v>0.04671395538950662</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2804164103649356</v>
+        <v>0.3139650057378987</v>
       </c>
       <c r="G13">
-        <v>0.000760103831613697</v>
+        <v>0.002362083355277096</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01162363935318855</v>
+        <v>0.1948426641743147</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4891539955843172</v>
+        <v>0.9136139622536632</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.801203234768991</v>
+        <v>1.920710055318011</v>
       </c>
       <c r="C14">
-        <v>1.523868033581721</v>
+        <v>0.5033407395944778</v>
       </c>
       <c r="D14">
-        <v>0.1400440242293541</v>
+        <v>0.04593375155732815</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2758151129398883</v>
+        <v>0.3141579860454797</v>
       </c>
       <c r="G14">
-        <v>0.0007608355373305784</v>
+        <v>0.002362505222351285</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01267412293376052</v>
+        <v>0.1961322705586134</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4825975682460637</v>
+        <v>0.9166089757667777</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.738589492790766</v>
+        <v>1.900661533356356</v>
       </c>
       <c r="C15">
-        <v>1.507869576957091</v>
+        <v>0.4981743788421795</v>
       </c>
       <c r="D15">
-        <v>0.1385613442126328</v>
+        <v>0.04545563491252835</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2730323714697889</v>
+        <v>0.3142847594245168</v>
       </c>
       <c r="G15">
-        <v>0.0007612847895367934</v>
+        <v>0.002362765104751185</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0133411556250248</v>
+        <v>0.1969285143941207</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4786948066798971</v>
+        <v>0.9184713851303741</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.380179435551156</v>
+        <v>1.785641319351839</v>
       </c>
       <c r="C16">
-        <v>1.416276290302449</v>
+        <v>0.4685298420550339</v>
       </c>
       <c r="D16">
-        <v>0.1300721245705887</v>
+        <v>0.04271243287098514</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2576139669720376</v>
+        <v>0.3151422600419949</v>
       </c>
       <c r="G16">
-        <v>0.0007638759224083578</v>
+        <v>0.002364277053571623</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01751419019006101</v>
+        <v>0.2015881539367984</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.458007534236188</v>
+        <v>0.9295703127746577</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.160627980472839</v>
+        <v>1.714966259300013</v>
       </c>
       <c r="C17">
-        <v>1.360155541772656</v>
+        <v>0.4503104090934471</v>
       </c>
       <c r="D17">
-        <v>0.12487007314256</v>
+        <v>0.04102667136199045</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.248607019423396</v>
+        <v>0.3157848868165658</v>
       </c>
       <c r="G17">
-        <v>0.0007654807630049221</v>
+        <v>0.00236522485427379</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0203754523209701</v>
+        <v>0.2045327272972621</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.446752549030748</v>
+        <v>0.9367582995229071</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.034450971633419</v>
+        <v>1.674274909528322</v>
       </c>
       <c r="C18">
-        <v>1.327898104983035</v>
+        <v>0.4398190227020109</v>
       </c>
       <c r="D18">
-        <v>0.1218798144936386</v>
+        <v>0.04005602421131016</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2435848592520813</v>
+        <v>0.3161972203430778</v>
       </c>
       <c r="G18">
-        <v>0.0007664095920054101</v>
+        <v>0.002365777469422182</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02212741617992825</v>
+        <v>0.2062578901042973</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4407830690170869</v>
+        <v>0.9410315151751121</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.991745949480503</v>
+        <v>1.660490577145993</v>
       </c>
       <c r="C19">
-        <v>1.316979699037233</v>
+        <v>0.4362647736163581</v>
       </c>
       <c r="D19">
-        <v>0.1208676489206084</v>
+        <v>0.03972720298990851</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2419109428140729</v>
+        <v>0.3163441527479947</v>
       </c>
       <c r="G19">
-        <v>0.0007667250824669156</v>
+        <v>0.002365965859376747</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02273843525550667</v>
+        <v>0.2068474054620574</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4388462994021012</v>
+        <v>0.9425021607101201</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.183988598895894</v>
+        <v>1.722493996600065</v>
       </c>
       <c r="C20">
-        <v>1.366127364045497</v>
+        <v>0.4522511516556165</v>
       </c>
       <c r="D20">
-        <v>0.1254236447898478</v>
+        <v>0.04120623187525041</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2495492622571476</v>
+        <v>0.3157120546626544</v>
       </c>
       <c r="G20">
-        <v>0.0007653093315887103</v>
+        <v>0.00236512318704306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02005977169412865</v>
+        <v>0.2042160078603359</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.4478979673167913</v>
+        <v>0.9359787425041191</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.831235935252323</v>
+        <v>1.930321529869047</v>
       </c>
       <c r="C21">
-        <v>1.531541407821294</v>
+        <v>0.5058174652274943</v>
       </c>
       <c r="D21">
-        <v>0.1407551525819173</v>
+        <v>0.04616296215409932</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2771591433426366</v>
+        <v>0.3140995169001997</v>
       </c>
       <c r="G21">
-        <v>0.0007606203973909001</v>
+        <v>0.002362381002078568</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01236062966515256</v>
+        <v>0.1957521637299739</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4844996103657024</v>
+        <v>0.9157234555799647</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.255496077203532</v>
+        <v>2.065764770459225</v>
       </c>
       <c r="C22">
-        <v>1.639920136979924</v>
+        <v>0.5407135543742356</v>
       </c>
       <c r="D22">
-        <v>0.150798241470298</v>
+        <v>0.04939271845672977</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2967802333910043</v>
+        <v>0.3134287351737299</v>
       </c>
       <c r="G22">
-        <v>0.0007576038371489021</v>
+        <v>0.00236065495525013</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.008372053554265624</v>
+        <v>0.1905032836665822</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5134247275712482</v>
+        <v>0.9037319263363202</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.028929706643396</v>
+        <v>1.993512251198297</v>
       </c>
       <c r="C23">
-        <v>1.582047608849166</v>
+        <v>0.5220994116104407</v>
       </c>
       <c r="D23">
-        <v>0.1454355980155242</v>
+        <v>0.04766985216707553</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2861554641724453</v>
+        <v>0.3137515566942639</v>
       </c>
       <c r="G23">
-        <v>0.0007592096194202214</v>
+        <v>0.002361570144877598</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01040046828747021</v>
+        <v>0.1932787415729224</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4975029718296753</v>
+        <v>0.9100175060132187</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.173427123405816</v>
+        <v>1.719090891113126</v>
       </c>
       <c r="C24">
-        <v>1.363427481823351</v>
+        <v>0.4513737941924774</v>
       </c>
       <c r="D24">
-        <v>0.1251733736574465</v>
+        <v>0.04112505717365877</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2491227899935353</v>
+        <v>0.3157448485464585</v>
       </c>
       <c r="G24">
-        <v>0.0007653868164684585</v>
+        <v>0.00236516912665691</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02020215871939535</v>
+        <v>0.2043590961642585</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.4473785682736491</v>
+        <v>0.9363307419269091</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.25441260297913</v>
+        <v>1.421529257859163</v>
       </c>
       <c r="C25">
-        <v>1.128403312856676</v>
+        <v>0.3746269847599706</v>
       </c>
       <c r="D25">
-        <v>0.103383660915128</v>
+        <v>0.03402587212623587</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2151494538759664</v>
+        <v>0.3195261938634602</v>
       </c>
       <c r="G25">
-        <v>0.0007722721535928627</v>
+        <v>0.002369336840869935</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03478778757419576</v>
+        <v>0.2175150168982812</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.4123255253170299</v>
+        <v>0.9700174400337289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.201154884288428</v>
+        <v>3.579282141667875</v>
       </c>
       <c r="C2">
-        <v>0.3177404093272571</v>
+        <v>0.9556305302516819</v>
       </c>
       <c r="D2">
-        <v>0.02876610486227094</v>
+        <v>0.08736095344720951</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3236978582895986</v>
+        <v>0.1944560263263497</v>
       </c>
       <c r="G2">
-        <v>0.002372653629534434</v>
+        <v>0.0007775506879766669</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2282277210525693</v>
+        <v>0.04850583030535432</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9993314048698494</v>
+        <v>0.400354351829364</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051038546440168</v>
+        <v>3.121937419384835</v>
       </c>
       <c r="C3">
-        <v>0.2789609095972594</v>
+        <v>0.8385326138360654</v>
       </c>
       <c r="D3">
-        <v>0.02518192536900443</v>
+        <v>0.0764993495232531</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3273827086035652</v>
+        <v>0.1827537480072507</v>
       </c>
       <c r="G3">
-        <v>0.002375057464057778</v>
+        <v>0.0007812664562738926</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2361230433375314</v>
+        <v>0.0594439456554271</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.021985576090842</v>
+        <v>0.3997231172378974</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9585017898886576</v>
+        <v>2.841001221894999</v>
       </c>
       <c r="C4">
-        <v>0.2550418583422527</v>
+        <v>0.7665779580255787</v>
       </c>
       <c r="D4">
-        <v>0.02297188721951215</v>
+        <v>0.0698242363533339</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3300656853817081</v>
+        <v>0.1765987514641054</v>
       </c>
       <c r="G4">
-        <v>0.002376610789542919</v>
+        <v>0.0007836187428774405</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2412824757097596</v>
+        <v>0.06690258390509518</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.037261736567771</v>
+        <v>0.4026717851877919</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9207033607141284</v>
+        <v>2.726457555244508</v>
       </c>
       <c r="C5">
-        <v>0.2452681639283583</v>
+        <v>0.7372351454599766</v>
       </c>
       <c r="D5">
-        <v>0.02206899705085164</v>
+        <v>0.06710196576272409</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3312643757020162</v>
+        <v>0.1743333999854997</v>
       </c>
       <c r="G5">
-        <v>0.002377263291422302</v>
+        <v>0.0007845954628440908</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2434630977389847</v>
+        <v>0.07011925963933674</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.043829181787331</v>
+        <v>0.4046623048488698</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9144216697878846</v>
+        <v>2.707433257434673</v>
       </c>
       <c r="C6">
-        <v>0.243643671622209</v>
+        <v>0.732361360225724</v>
       </c>
       <c r="D6">
-        <v>0.02191893697894898</v>
+        <v>0.06664979119976522</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3314697695418438</v>
+        <v>0.1739714484287376</v>
       </c>
       <c r="G6">
-        <v>0.002377372818615185</v>
+        <v>0.0007847587520811937</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2438298984441293</v>
+        <v>0.07066381997081089</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.044940335818154</v>
+        <v>0.4050390591045101</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9579923835280511</v>
+        <v>2.83945672456872</v>
       </c>
       <c r="C7">
-        <v>0.2549101531377573</v>
+        <v>0.7661823227842604</v>
       </c>
       <c r="D7">
-        <v>0.02295971967703281</v>
+        <v>0.06978753213844158</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3300814252546687</v>
+        <v>0.176567237688829</v>
       </c>
       <c r="G7">
-        <v>0.002376619510314891</v>
+        <v>0.0007836318413901162</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2413115684171009</v>
+        <v>0.06694525981275806</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.037348923267047</v>
+        <v>0.4026955001547918</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.149472072274534</v>
+        <v>3.421597580210118</v>
       </c>
       <c r="C8">
-        <v>0.3043921429664067</v>
+        <v>0.9152626268174515</v>
       </c>
       <c r="D8">
-        <v>0.02753225631741429</v>
+        <v>0.08361675568161075</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3248809030367141</v>
+        <v>0.1901972633556142</v>
       </c>
       <c r="G8">
-        <v>0.002373466448931939</v>
+        <v>0.0007788174045261462</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2308851846948075</v>
+        <v>0.05211731032351069</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.006858181863279</v>
+        <v>0.399413433327652</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.521966455510494</v>
+        <v>4.563637524242893</v>
       </c>
       <c r="C9">
-        <v>0.4005391612835183</v>
+        <v>1.207503393992056</v>
       </c>
       <c r="D9">
-        <v>0.03642241861982143</v>
+        <v>0.1107180374891215</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3180358742550169</v>
+        <v>0.2258700659535009</v>
       </c>
       <c r="G9">
-        <v>0.002367894560908106</v>
+        <v>0.0007699215031193597</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2129233983883974</v>
+        <v>0.02938163429603935</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9579659265190799</v>
+        <v>0.4218228754790658</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.793700222784082</v>
+        <v>5.405246835491084</v>
       </c>
       <c r="C10">
-        <v>0.4706071551510149</v>
+        <v>1.422683255832396</v>
       </c>
       <c r="D10">
-        <v>0.04290464719974807</v>
+        <v>0.1306659842009452</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3150747288718136</v>
+        <v>0.2586637313605422</v>
       </c>
       <c r="G10">
-        <v>0.002364169913365688</v>
+        <v>0.0007636935690195082</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2012564359015838</v>
+        <v>0.01720241611307277</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9287689650883379</v>
+        <v>0.4593618045166608</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.916876674765831</v>
+        <v>5.789227895624038</v>
       </c>
       <c r="C11">
-        <v>0.5023529229084716</v>
+        <v>1.520808274276476</v>
       </c>
       <c r="D11">
-        <v>0.04584233398222182</v>
+        <v>0.1397604593843198</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3141817210817237</v>
+        <v>0.2752808665791662</v>
       </c>
       <c r="G11">
-        <v>0.002362554832210198</v>
+        <v>0.0007609213849054153</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1962841619127689</v>
+        <v>0.01280029047911102</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9169634728299627</v>
+        <v>0.4818445727445351</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.96345525837603</v>
+        <v>5.934842790385176</v>
       </c>
       <c r="C12">
-        <v>0.5143551002347522</v>
+        <v>1.558011583716336</v>
       </c>
       <c r="D12">
-        <v>0.04695310438441425</v>
+        <v>0.1432082073168459</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3139092530941809</v>
+        <v>0.2818417481481745</v>
       </c>
       <c r="G12">
-        <v>0.002361954585517519</v>
+        <v>0.0007598798855887239</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1944497522396482</v>
+        <v>0.01131104268401839</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9127067239338515</v>
+        <v>0.4912101760484262</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.953426693085248</v>
+        <v>5.903471899338456</v>
       </c>
       <c r="C13">
-        <v>0.5117710852893538</v>
+        <v>1.549996973335794</v>
       </c>
       <c r="D13">
-        <v>0.04671395538950662</v>
+        <v>0.1424654845163644</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3139650057378987</v>
+        <v>0.2804164103649498</v>
       </c>
       <c r="G13">
-        <v>0.002362083355277096</v>
+        <v>0.0007601038315987993</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1948426641743147</v>
+        <v>0.01162363935317318</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9136139622536632</v>
+        <v>0.4891539955843029</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.920710055318011</v>
+        <v>5.801203234769218</v>
       </c>
       <c r="C14">
-        <v>0.5033407395944778</v>
+        <v>1.523868033581948</v>
       </c>
       <c r="D14">
-        <v>0.04593375155732815</v>
+        <v>0.1400440242293826</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3141579860454797</v>
+        <v>0.2758151129398811</v>
       </c>
       <c r="G14">
-        <v>0.002362505222351285</v>
+        <v>0.000760835537360113</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1961322705586134</v>
+        <v>0.01267412293375947</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9166089757667777</v>
+        <v>0.4825975682460211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.900661533356356</v>
+        <v>5.738589492790823</v>
       </c>
       <c r="C15">
-        <v>0.4981743788421795</v>
+        <v>1.507869576957319</v>
       </c>
       <c r="D15">
-        <v>0.04545563491252835</v>
+        <v>0.1385613442125191</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3142847594245168</v>
+        <v>0.2730323714697676</v>
       </c>
       <c r="G15">
-        <v>0.002362765104751185</v>
+        <v>0.0007612847895077657</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1969285143941207</v>
+        <v>0.0133411556250192</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9184713851303741</v>
+        <v>0.4786948066798971</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.785641319351839</v>
+        <v>5.38017943555127</v>
       </c>
       <c r="C16">
-        <v>0.4685298420550339</v>
+        <v>1.416276290302676</v>
       </c>
       <c r="D16">
-        <v>0.04271243287098514</v>
+        <v>0.1300721245707024</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3151422600419949</v>
+        <v>0.2576139669720376</v>
       </c>
       <c r="G16">
-        <v>0.002364277053571623</v>
+        <v>0.000763875922394887</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2015881539367984</v>
+        <v>0.01751419019007633</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9295703127746577</v>
+        <v>0.4580075342362449</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.714966259300013</v>
+        <v>5.160627980472896</v>
       </c>
       <c r="C17">
-        <v>0.4503104090934471</v>
+        <v>1.360155541772372</v>
       </c>
       <c r="D17">
-        <v>0.04102667136199045</v>
+        <v>0.1248700731426737</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3157848868165658</v>
+        <v>0.2486070194234031</v>
       </c>
       <c r="G17">
-        <v>0.00236522485427379</v>
+        <v>0.0007654807630606014</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2045327272972621</v>
+        <v>0.02037545232096799</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9367582995229071</v>
+        <v>0.446752549030677</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.674274909528322</v>
+        <v>5.034450971633362</v>
       </c>
       <c r="C18">
-        <v>0.4398190227020109</v>
+        <v>1.327898104983319</v>
       </c>
       <c r="D18">
-        <v>0.04005602421131016</v>
+        <v>0.1218798144936386</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3161972203430778</v>
+        <v>0.2435848592520813</v>
       </c>
       <c r="G18">
-        <v>0.002365777469422182</v>
+        <v>0.0007664095920038084</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2062578901042973</v>
+        <v>0.02212741617992581</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9410315151751121</v>
+        <v>0.4407830690171721</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.660490577145993</v>
+        <v>4.991745949480276</v>
       </c>
       <c r="C19">
-        <v>0.4362647736163581</v>
+        <v>1.316979699036949</v>
       </c>
       <c r="D19">
-        <v>0.03972720298990851</v>
+        <v>0.1208676489207363</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3163441527479947</v>
+        <v>0.2419109428140942</v>
       </c>
       <c r="G19">
-        <v>0.002365965859376747</v>
+        <v>0.0007667250825249682</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2068474054620574</v>
+        <v>0.02273843525550462</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9425021607101201</v>
+        <v>0.4388462994021154</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.722493996600065</v>
+        <v>5.183988598896008</v>
       </c>
       <c r="C20">
-        <v>0.4522511516556165</v>
+        <v>1.366127364045497</v>
       </c>
       <c r="D20">
-        <v>0.04120623187525041</v>
+        <v>0.1254236447899189</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3157120546626544</v>
+        <v>0.2495492622571476</v>
       </c>
       <c r="G20">
-        <v>0.00236512318704306</v>
+        <v>0.0007653093315898045</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2042160078603359</v>
+        <v>0.02005977169412987</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9359787425041191</v>
+        <v>0.4478979673168482</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.930321529869047</v>
+        <v>5.83123593525238</v>
       </c>
       <c r="C21">
-        <v>0.5058174652274943</v>
+        <v>1.531541407821635</v>
       </c>
       <c r="D21">
-        <v>0.04616296215409932</v>
+        <v>0.1407551525818889</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3140995169001997</v>
+        <v>0.2771591433426153</v>
       </c>
       <c r="G21">
-        <v>0.002362381002078568</v>
+        <v>0.0007606203974917968</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1957521637299739</v>
+        <v>0.01236062966515133</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9157234555799647</v>
+        <v>0.4844996103657593</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.065764770459225</v>
+        <v>6.255496077203418</v>
       </c>
       <c r="C22">
-        <v>0.5407135543742356</v>
+        <v>1.639920136979981</v>
       </c>
       <c r="D22">
-        <v>0.04939271845672977</v>
+        <v>0.1507982414704543</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3134287351737299</v>
+        <v>0.2967802333910043</v>
       </c>
       <c r="G22">
-        <v>0.00236065495525013</v>
+        <v>0.0007576038370920294</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1905032836665822</v>
+        <v>0.008372053554264403</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9037319263363202</v>
+        <v>0.5134247275713619</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993512251198297</v>
+        <v>6.028929706643396</v>
       </c>
       <c r="C23">
-        <v>0.5220994116104407</v>
+        <v>1.582047608849109</v>
       </c>
       <c r="D23">
-        <v>0.04766985216707553</v>
+        <v>0.1454355980154816</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3137515566942639</v>
+        <v>0.2861554641724382</v>
       </c>
       <c r="G23">
-        <v>0.002361570144877598</v>
+        <v>0.0007592096194187214</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1932787415729224</v>
+        <v>0.0104004682874666</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9100175060132187</v>
+        <v>0.4975029718296895</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.719090891113126</v>
+        <v>5.173427123405475</v>
       </c>
       <c r="C24">
-        <v>0.4513737941924774</v>
+        <v>1.363427481823123</v>
       </c>
       <c r="D24">
-        <v>0.04112505717365877</v>
+        <v>0.1251733736574607</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3157448485464585</v>
+        <v>0.2491227899935353</v>
       </c>
       <c r="G24">
-        <v>0.00236516912665691</v>
+        <v>0.0007653868163533523</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2043590961642585</v>
+        <v>0.0202021587194075</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9363307419269091</v>
+        <v>0.4473785682737059</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.421529257859163</v>
+        <v>4.254412602979301</v>
       </c>
       <c r="C25">
-        <v>0.3746269847599706</v>
+        <v>1.128403312856676</v>
       </c>
       <c r="D25">
-        <v>0.03402587212623587</v>
+        <v>0.1033836609150001</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3195261938634602</v>
+        <v>0.2151494538759664</v>
       </c>
       <c r="G25">
-        <v>0.002369336840869935</v>
+        <v>0.0007722721536041107</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2175150168982812</v>
+        <v>0.03478778757420881</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9700174400337289</v>
+        <v>0.412325525317101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.579282141667875</v>
+        <v>0.8957010990860681</v>
       </c>
       <c r="C2">
-        <v>0.9556305302516819</v>
+        <v>0.1492098350932807</v>
       </c>
       <c r="D2">
-        <v>0.08736095344720951</v>
+        <v>0.06512598305267048</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1944560263263497</v>
+        <v>0.9563282099515646</v>
       </c>
       <c r="G2">
-        <v>0.0007775506879766669</v>
+        <v>0.8988953415557148</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.012415093939838</v>
       </c>
       <c r="I2">
-        <v>0.04850583030535432</v>
+        <v>0.01269184632039977</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6364941450268731</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7398936441997961</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8499712570036593</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2216561681374429</v>
       </c>
       <c r="O2">
-        <v>0.400354351829364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2231607278623677</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.121937419384835</v>
+        <v>0.7795116685458368</v>
       </c>
       <c r="C3">
-        <v>0.8385326138360654</v>
+        <v>0.1356812711456712</v>
       </c>
       <c r="D3">
-        <v>0.0764993495232531</v>
+        <v>0.06196033686545377</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1827537480072507</v>
+        <v>0.9020609062647793</v>
       </c>
       <c r="G3">
-        <v>0.0007812664562738926</v>
+        <v>0.8520338744644107</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01550302000804937</v>
       </c>
       <c r="I3">
-        <v>0.0594439456554271</v>
+        <v>0.01611206611705995</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6189613270162795</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7168815449835648</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7409764258893148</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1962102373659533</v>
       </c>
       <c r="O3">
-        <v>0.3997231172378974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1948323052783145</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.841001221894999</v>
+        <v>0.7080617196333208</v>
       </c>
       <c r="C4">
-        <v>0.7665779580255787</v>
+        <v>0.127459422009764</v>
       </c>
       <c r="D4">
-        <v>0.0698242363533339</v>
+        <v>0.06000149353514317</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1765987514641054</v>
+        <v>0.869115622308243</v>
       </c>
       <c r="G4">
-        <v>0.0007836187428774405</v>
+        <v>0.8235112134051548</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01764551931183367</v>
       </c>
       <c r="I4">
-        <v>0.06690258390509518</v>
+        <v>0.01853671372222543</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6083934230749293</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7027633866634346</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6741940283455108</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1805822368954679</v>
       </c>
       <c r="O4">
-        <v>0.4026717851877919</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1774263268633867</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.726457555244508</v>
+        <v>0.6786454902274954</v>
       </c>
       <c r="C5">
-        <v>0.7372351454599766</v>
+        <v>0.1243099748215428</v>
       </c>
       <c r="D5">
-        <v>0.06710196576272409</v>
+        <v>0.05925324289666278</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1743333999854997</v>
+        <v>0.854579363907142</v>
       </c>
       <c r="G5">
-        <v>0.0007845954628440908</v>
+        <v>0.8106159408740297</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01858515623060475</v>
       </c>
       <c r="I5">
-        <v>0.07011925963933674</v>
+        <v>0.01969692446983906</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6034495538323341</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.695961414266705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6473097010958782</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1742109594568575</v>
       </c>
       <c r="O5">
-        <v>0.4046623048488698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1702908073217131</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.707433257434673</v>
+        <v>0.6734318789181941</v>
       </c>
       <c r="C6">
-        <v>0.732361360225724</v>
+        <v>0.1240146300099028</v>
       </c>
       <c r="D6">
-        <v>0.06664979119976522</v>
+        <v>0.0591953697877976</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1739714484287376</v>
+        <v>0.8507073300809083</v>
       </c>
       <c r="G6">
-        <v>0.0007847587520811937</v>
+        <v>0.8068550689324496</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01875295845794722</v>
       </c>
       <c r="I6">
-        <v>0.07066381997081089</v>
+        <v>0.02001571597877216</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6017955411280553</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6935503002291625</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6432190443057806</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1731533241874814</v>
       </c>
       <c r="O6">
-        <v>0.4050390591045101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1690592484727382</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.83945672456872</v>
+        <v>0.7067681816455718</v>
       </c>
       <c r="C7">
-        <v>0.7661823227842604</v>
+        <v>0.1280374551845682</v>
       </c>
       <c r="D7">
-        <v>0.06978753213844158</v>
+        <v>0.06017469321364999</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.176567237688829</v>
+        <v>0.8649216145181526</v>
       </c>
       <c r="G7">
-        <v>0.0007836318413901162</v>
+        <v>0.818903417652038</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01767930275514973</v>
       </c>
       <c r="I7">
-        <v>0.06694525981275806</v>
+        <v>0.01886575192382178</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6060456530950802</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6991716472024194</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6748498845076085</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1804981918954027</v>
       </c>
       <c r="O7">
-        <v>0.4026955001547918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1772028521674684</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.421597580210118</v>
+        <v>0.854454338941963</v>
       </c>
       <c r="C8">
-        <v>0.9152626268174515</v>
+        <v>0.1453568330038806</v>
       </c>
       <c r="D8">
-        <v>0.08361675568161075</v>
+        <v>0.06428683251467504</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1901972633556142</v>
+        <v>0.9322471546261397</v>
       </c>
       <c r="G8">
-        <v>0.0007788174045261462</v>
+        <v>0.8768191905292326</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01345065591072803</v>
       </c>
       <c r="I8">
-        <v>0.05211731032351069</v>
+        <v>0.01417563535301181</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6274007524488638</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7273367799189998</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8137122026589623</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2128858162063949</v>
       </c>
       <c r="O8">
-        <v>0.399413433327652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.2132238818172176</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.563637524242893</v>
+        <v>1.145103871233857</v>
       </c>
       <c r="C9">
-        <v>1.207503393992056</v>
+        <v>0.1790764948774353</v>
       </c>
       <c r="D9">
-        <v>0.1107180374891215</v>
+        <v>0.07190601408164099</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2258700659535009</v>
+        <v>1.074782277875698</v>
       </c>
       <c r="G9">
-        <v>0.0007699215031193597</v>
+        <v>1.000642456899726</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.007187117179328961</v>
       </c>
       <c r="I9">
-        <v>0.02938163429603935</v>
+        <v>0.007220759965981927</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6750461443040621</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7890054613058766</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.085747199567862</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2764620239774018</v>
       </c>
       <c r="O9">
-        <v>0.4218228754790658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2840699040681685</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.405246835491084</v>
+        <v>1.356744053556469</v>
       </c>
       <c r="C10">
-        <v>1.422683255832396</v>
+        <v>0.2080669717943948</v>
       </c>
       <c r="D10">
-        <v>0.1306659842009452</v>
+        <v>0.07856979517481477</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2586637313605422</v>
+        <v>1.160823659850777</v>
       </c>
       <c r="G10">
-        <v>0.0007636935690195082</v>
+        <v>1.06997268641905</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004353774607110061</v>
       </c>
       <c r="I10">
-        <v>0.01720241611307277</v>
+        <v>0.004174871946924341</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6993329623962552</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8163628457922201</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.294613073923074</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3055024961625037</v>
       </c>
       <c r="O10">
-        <v>0.4593618045166608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3285216164764151</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.789227895624038</v>
+        <v>1.438519750846069</v>
       </c>
       <c r="C11">
-        <v>1.520808274276476</v>
+        <v>0.2538183626459443</v>
       </c>
       <c r="D11">
-        <v>0.1397604593843198</v>
+        <v>0.09228844255346047</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2752808665791662</v>
+        <v>1.031752622590616</v>
       </c>
       <c r="G11">
-        <v>0.0007609213849054153</v>
+        <v>0.9174847668357557</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02305716348281095</v>
       </c>
       <c r="I11">
-        <v>0.01280029047911102</v>
+        <v>0.004080479929014835</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6167115943222257</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6887565385068655</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.454072552908798</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1848731095905407</v>
       </c>
       <c r="O11">
-        <v>0.4818445727445351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.2846319506686825</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.934842790385176</v>
+        <v>1.464137029615301</v>
       </c>
       <c r="C12">
-        <v>1.558011583716336</v>
+        <v>0.2911115324215388</v>
       </c>
       <c r="D12">
-        <v>0.1432082073168459</v>
+        <v>0.104101211415653</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2818417481481745</v>
+        <v>0.916455436006629</v>
       </c>
       <c r="G12">
-        <v>0.0007598798855887239</v>
+        <v>0.7900579928674034</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06208039278021005</v>
       </c>
       <c r="I12">
-        <v>0.01131104268401839</v>
+        <v>0.003985092964256864</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5495714433426002</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5907411385087471</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.546334215533733</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1056296730602213</v>
       </c>
       <c r="O12">
-        <v>0.4912101760484262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2414673802904908</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.903471899338456</v>
+        <v>1.446290770018095</v>
       </c>
       <c r="C13">
-        <v>1.549996973335794</v>
+        <v>0.324500035116543</v>
       </c>
       <c r="D13">
-        <v>0.1424654845163644</v>
+        <v>0.1152462827692773</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.2804164103649498</v>
+        <v>0.7987673725470188</v>
       </c>
       <c r="G13">
-        <v>0.0007601038315987993</v>
+        <v>0.6675350567474112</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1184350074663172</v>
       </c>
       <c r="I13">
-        <v>0.01162363935317318</v>
+        <v>0.004273507484875871</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4867887937101614</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.504264086616061</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.592829758676942</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05368036919117714</v>
       </c>
       <c r="O13">
-        <v>0.4891539955843029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.1964602109030409</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.801203234769218</v>
+        <v>1.413887515252924</v>
       </c>
       <c r="C14">
-        <v>1.523868033581948</v>
+        <v>0.3469150190846477</v>
       </c>
       <c r="D14">
-        <v>0.1400440242293826</v>
+        <v>0.122981657882967</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.2758151129398811</v>
+        <v>0.7157077345316551</v>
       </c>
       <c r="G14">
-        <v>0.000760835537360113</v>
+        <v>0.5847894886763783</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1683180668974984</v>
       </c>
       <c r="I14">
-        <v>0.01267412293375947</v>
+        <v>0.004762053998819127</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4451232244705636</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4499178720313814</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.605012122359653</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03366669705030212</v>
       </c>
       <c r="O14">
-        <v>0.4825975682460211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.1648265933379776</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.738589492790823</v>
+        <v>1.396387970939855</v>
       </c>
       <c r="C15">
-        <v>1.507869576957319</v>
+        <v>0.3511974369033339</v>
       </c>
       <c r="D15">
-        <v>0.1385613442125191</v>
+        <v>0.124586591369102</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2730323714697676</v>
+        <v>0.6932212395694677</v>
       </c>
       <c r="G15">
-        <v>0.0007612847895077657</v>
+        <v>0.5634755881526843</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.181070842791641</v>
       </c>
       <c r="I15">
-        <v>0.0133411556250192</v>
+        <v>0.005115298200122353</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4348054588301977</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4371268672136033</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.598103767926119</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03090066939256086</v>
       </c>
       <c r="O15">
-        <v>0.4786948066798971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1563838323221312</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.38017943555127</v>
+        <v>1.308359200803864</v>
       </c>
       <c r="C16">
-        <v>1.416276290302676</v>
+        <v>0.3310728207672327</v>
       </c>
       <c r="D16">
-        <v>0.1300721245707024</v>
+        <v>0.1191138476269344</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.2576139669720376</v>
+        <v>0.6791351659310791</v>
       </c>
       <c r="G16">
-        <v>0.000763875922394887</v>
+        <v>0.557524370409169</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1695927588096566</v>
       </c>
       <c r="I16">
-        <v>0.01751419019007633</v>
+        <v>0.006429450570183626</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.436250790074908</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4420237371556226</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.497021925129218</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03063622613529926</v>
       </c>
       <c r="O16">
-        <v>0.4580075342362449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1477579387199697</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.160627980472896</v>
+        <v>1.258162382032253</v>
       </c>
       <c r="C17">
-        <v>1.360155541772372</v>
+        <v>0.3035037572697519</v>
       </c>
       <c r="D17">
-        <v>0.1248700731426737</v>
+        <v>0.1107460309411934</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2486070194234031</v>
+        <v>0.7116561158095465</v>
       </c>
       <c r="G17">
-        <v>0.0007654807630606014</v>
+        <v>0.5957619486071337</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1325092692753032</v>
       </c>
       <c r="I17">
-        <v>0.02037545232096799</v>
+        <v>0.007240558703617062</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4590137559329435</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4734995155341259</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.413365272669694</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03823353092442616</v>
       </c>
       <c r="O17">
-        <v>0.446752549030677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1574040507736534</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.034450971633362</v>
+        <v>1.235374545572597</v>
       </c>
       <c r="C18">
-        <v>1.327898104983319</v>
+        <v>0.2680023193466212</v>
       </c>
       <c r="D18">
-        <v>0.1218798144936386</v>
+        <v>0.09951653453688891</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.2435848592520813</v>
+        <v>0.7937862062252705</v>
       </c>
       <c r="G18">
-        <v>0.0007664095920038084</v>
+        <v>0.6839845953976607</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07972991671583429</v>
       </c>
       <c r="I18">
-        <v>0.02212741617992581</v>
+        <v>0.007250758737833429</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5064297035221301</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5386320385437351</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.33531494061927</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06758855661954044</v>
       </c>
       <c r="O18">
-        <v>0.4407830690171721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1856630350864599</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.991745949480276</v>
+        <v>1.234435800398074</v>
       </c>
       <c r="C19">
-        <v>1.316979699036949</v>
+        <v>0.2345025823513396</v>
       </c>
       <c r="D19">
-        <v>0.1208676489207363</v>
+        <v>0.08865129799995941</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2419109428140942</v>
+        <v>0.909250940746773</v>
       </c>
       <c r="G19">
-        <v>0.0007667250825249682</v>
+        <v>0.8076560877002237</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03375784452666863</v>
       </c>
       <c r="I19">
-        <v>0.02273843525550462</v>
+        <v>0.007140522888433587</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5707224886815681</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6298280249570212</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.27121428277826</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.133607669841517</v>
       </c>
       <c r="O19">
-        <v>0.4388462994021154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2295018531792508</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.183988598896008</v>
+        <v>1.298170026250574</v>
       </c>
       <c r="C20">
-        <v>1.366127364045497</v>
+        <v>0.2025835195877477</v>
       </c>
       <c r="D20">
-        <v>0.1254236447899189</v>
+        <v>0.07750138779511673</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2495492622571476</v>
+        <v>1.124885253524113</v>
       </c>
       <c r="G20">
-        <v>0.0007653093315898045</v>
+        <v>1.037086069918018</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.005026289571410381</v>
       </c>
       <c r="I20">
-        <v>0.02005977169412987</v>
+        <v>0.005733348737173571</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6854548540053713</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7977929658190419</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.24316034349647</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2971228814913331</v>
       </c>
       <c r="O20">
-        <v>0.4478979673168482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3161196654906817</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.83123593525238</v>
+        <v>1.463596067488396</v>
       </c>
       <c r="C21">
-        <v>1.531541407821635</v>
+        <v>0.2200368938451476</v>
       </c>
       <c r="D21">
-        <v>0.1407551525818889</v>
+        <v>0.08091757868321992</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.2771591433426153</v>
+        <v>1.224435154659503</v>
       </c>
       <c r="G21">
-        <v>0.0007606203974917968</v>
+        <v>1.127008747249945</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002781510492221528</v>
       </c>
       <c r="I21">
-        <v>0.01236062966515133</v>
+        <v>0.003733991317229624</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7228546332690797</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8467360244366589</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.392843624637464</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3471436445807683</v>
       </c>
       <c r="O21">
-        <v>0.4844996103657593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3621627225448876</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.255496077203418</v>
+        <v>1.572340977862297</v>
       </c>
       <c r="C22">
-        <v>1.639920136979981</v>
+        <v>0.2324156774019457</v>
       </c>
       <c r="D22">
-        <v>0.1507982414704543</v>
+        <v>0.08339994984505239</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.2967802333910043</v>
+        <v>1.285513404762398</v>
       </c>
       <c r="G22">
-        <v>0.0007576038370920294</v>
+        <v>1.181163897046318</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001785766402979005</v>
       </c>
       <c r="I22">
-        <v>0.008372053554264403</v>
+        <v>0.002524438749516911</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7449830263875299</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8749290950575599</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.493334290436962</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3708139076679373</v>
       </c>
       <c r="O22">
-        <v>0.5134247275713619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3886094583316861</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.028929706643396</v>
+        <v>1.515403271959769</v>
       </c>
       <c r="C23">
-        <v>1.582047608849109</v>
+        <v>0.2250037676385404</v>
       </c>
       <c r="D23">
-        <v>0.1454355980154816</v>
+        <v>0.08183235595937788</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.2861554641724382</v>
+        <v>1.257536145890413</v>
       </c>
       <c r="G23">
-        <v>0.0007592096194187214</v>
+        <v>1.15739436256996</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002280805082355064</v>
       </c>
       <c r="I23">
-        <v>0.0104004682874666</v>
+        <v>0.002802176561865544</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7357787095019006</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8639293111510753</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.438419281995721</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3581661927452302</v>
       </c>
       <c r="O23">
-        <v>0.4975029718296895</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3746476482075067</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.173427123405475</v>
+        <v>1.298343198629993</v>
       </c>
       <c r="C24">
-        <v>1.363427481823123</v>
+        <v>0.1986670740245131</v>
       </c>
       <c r="D24">
-        <v>0.1251733736574607</v>
+        <v>0.0762720682895548</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2491227899935353</v>
+        <v>1.145711790205894</v>
       </c>
       <c r="G24">
-        <v>0.0007653868163533523</v>
+        <v>1.060432803591723</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.00477824570278873</v>
       </c>
       <c r="I24">
-        <v>0.0202021587194075</v>
+        <v>0.005169048551978861</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6974717783541706</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8162298152195575</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.233404737016059</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.310450045081609</v>
       </c>
       <c r="O24">
-        <v>0.4473785682737059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3216376615626828</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.254412602979301</v>
+        <v>1.064823978349523</v>
       </c>
       <c r="C25">
-        <v>1.128403312856676</v>
+        <v>0.1709920434047021</v>
       </c>
       <c r="D25">
-        <v>0.1033836609150001</v>
+        <v>0.07020844142724769</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2151494538759664</v>
+        <v>1.028599243341645</v>
       </c>
       <c r="G25">
-        <v>0.0007722721536041107</v>
+        <v>0.958863100239256</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.008669918459270093</v>
       </c>
       <c r="I25">
-        <v>0.03478778757420881</v>
+        <v>0.0092977696609573</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6578755218537111</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7660149364872311</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.013789482333834</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.259247445360117</v>
       </c>
       <c r="O25">
-        <v>0.412325525317101</v>
+        <v>0.264657659204282</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8957010990860681</v>
+        <v>0.8742408271741056</v>
       </c>
       <c r="C2">
-        <v>0.1492098350932807</v>
+        <v>0.1546126380289792</v>
       </c>
       <c r="D2">
-        <v>0.06512598305267048</v>
+        <v>0.06847437922038324</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9563282099515646</v>
+        <v>0.8130395753681938</v>
       </c>
       <c r="G2">
-        <v>0.8988953415557148</v>
+        <v>0.7277621616087799</v>
       </c>
       <c r="H2">
-        <v>0.012415093939838</v>
+        <v>0.01005644227144678</v>
       </c>
       <c r="I2">
-        <v>0.01269184632039977</v>
+        <v>0.009223729927740898</v>
       </c>
       <c r="J2">
-        <v>0.6364941450268731</v>
+        <v>0.567031929625827</v>
       </c>
       <c r="K2">
-        <v>0.7398936441997961</v>
+        <v>0.6019818216373025</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2552794103619043</v>
       </c>
       <c r="M2">
-        <v>0.8499712570036593</v>
+        <v>0.1978990535860028</v>
       </c>
       <c r="N2">
-        <v>0.2216561681374429</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2231607278623677</v>
+        <v>0.88968548957601</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2302819796930038</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2197348666509491</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7795116685458368</v>
+        <v>0.7626145871874428</v>
       </c>
       <c r="C3">
-        <v>0.1356812711456712</v>
+        <v>0.137149950199742</v>
       </c>
       <c r="D3">
-        <v>0.06196033686545377</v>
+        <v>0.06376633516729413</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9020609062647793</v>
+        <v>0.7756953188148401</v>
       </c>
       <c r="G3">
-        <v>0.8520338744644107</v>
+        <v>0.7019020864206738</v>
       </c>
       <c r="H3">
-        <v>0.01550302000804937</v>
+        <v>0.01259363096876642</v>
       </c>
       <c r="I3">
-        <v>0.01611206611705995</v>
+        <v>0.0117400249505919</v>
       </c>
       <c r="J3">
-        <v>0.6189613270162795</v>
+        <v>0.553930737574106</v>
       </c>
       <c r="K3">
-        <v>0.7168815449835648</v>
+        <v>0.5924288025874915</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2569499350194313</v>
       </c>
       <c r="M3">
-        <v>0.7409764258893148</v>
+        <v>0.1906461053202868</v>
       </c>
       <c r="N3">
-        <v>0.1962102373659533</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1948323052783145</v>
+        <v>0.7750072746453611</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2050853405963906</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1920296951449068</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7080617196333208</v>
+        <v>0.6938560740060211</v>
       </c>
       <c r="C4">
-        <v>0.127459422009764</v>
+        <v>0.1266060849453936</v>
       </c>
       <c r="D4">
-        <v>0.06000149353514317</v>
+        <v>0.06088631073355089</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.869115622308243</v>
+        <v>0.7529743176060606</v>
       </c>
       <c r="G4">
-        <v>0.8235112134051548</v>
+        <v>0.6862942419972171</v>
       </c>
       <c r="H4">
-        <v>0.01764551931183367</v>
+        <v>0.0143570537459396</v>
       </c>
       <c r="I4">
-        <v>0.01853671372222543</v>
+        <v>0.01354516036097486</v>
       </c>
       <c r="J4">
-        <v>0.6083934230749293</v>
+        <v>0.5458074446483465</v>
       </c>
       <c r="K4">
-        <v>0.7027633866634346</v>
+        <v>0.5864907702993882</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2578261115540599</v>
       </c>
       <c r="M4">
-        <v>0.6741940283455108</v>
+        <v>0.1868089060910805</v>
       </c>
       <c r="N4">
-        <v>0.1805822368954679</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1774263268633867</v>
+        <v>0.7047270733371533</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1896030229801937</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1749905368158373</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6786454902274954</v>
+        <v>0.6655325476375538</v>
       </c>
       <c r="C5">
-        <v>0.1243099748215428</v>
+        <v>0.1225721593109199</v>
       </c>
       <c r="D5">
-        <v>0.05925324289666278</v>
+        <v>0.05977879558040655</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.854579363907142</v>
+        <v>0.742748663448964</v>
       </c>
       <c r="G5">
-        <v>0.8106159408740297</v>
+        <v>0.6789034591738812</v>
       </c>
       <c r="H5">
-        <v>0.01858515623060475</v>
+        <v>0.01513121644510557</v>
       </c>
       <c r="I5">
-        <v>0.01969692446983906</v>
+        <v>0.01444742760588724</v>
       </c>
       <c r="J5">
-        <v>0.6034495538323341</v>
+        <v>0.5418910358112896</v>
       </c>
       <c r="K5">
-        <v>0.695961414266705</v>
+        <v>0.5832095465478488</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2577686452631553</v>
       </c>
       <c r="M5">
-        <v>0.6473097010958782</v>
+        <v>0.1851457429264798</v>
       </c>
       <c r="N5">
-        <v>0.1742109594568575</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1702908073217131</v>
+        <v>0.6763991611646389</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1832884988440284</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.168004054698411</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6734318789181941</v>
+        <v>0.6605259559886747</v>
       </c>
       <c r="C6">
-        <v>0.1240146300099028</v>
+        <v>0.1221786424227886</v>
       </c>
       <c r="D6">
-        <v>0.0591953697877976</v>
+        <v>0.05967361754145983</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8507073300809083</v>
+        <v>0.7398157694302867</v>
       </c>
       <c r="G6">
-        <v>0.8068550689324496</v>
+        <v>0.6763470474255939</v>
       </c>
       <c r="H6">
-        <v>0.01875295845794722</v>
+        <v>0.01526961037968777</v>
       </c>
       <c r="I6">
-        <v>0.02001571597877216</v>
+        <v>0.01473630401491732</v>
       </c>
       <c r="J6">
-        <v>0.6017955411280553</v>
+        <v>0.5405243467434531</v>
       </c>
       <c r="K6">
-        <v>0.6935503002291625</v>
+        <v>0.5816361025775798</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2572978242263488</v>
       </c>
       <c r="M6">
-        <v>0.6432190443057806</v>
+        <v>0.1845686486284031</v>
       </c>
       <c r="N6">
-        <v>0.1731533241874814</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1690592484727382</v>
+        <v>0.6720472678618137</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1822387484582535</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1668009838873985</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7067681816455718</v>
+        <v>0.6928632401992445</v>
       </c>
       <c r="C7">
-        <v>0.1280374551845682</v>
+        <v>0.1270473023832679</v>
       </c>
       <c r="D7">
-        <v>0.06017469321364999</v>
+        <v>0.06122319307142732</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8649216145181526</v>
+        <v>0.7474542557527286</v>
       </c>
       <c r="G7">
-        <v>0.818903417652038</v>
+        <v>0.6850955094641336</v>
       </c>
       <c r="H7">
-        <v>0.01767930275514973</v>
+        <v>0.01439300262766191</v>
       </c>
       <c r="I7">
-        <v>0.01886575192382178</v>
+        <v>0.01391806168707443</v>
       </c>
       <c r="J7">
-        <v>0.6060456530950802</v>
+        <v>0.5377148488674095</v>
       </c>
       <c r="K7">
-        <v>0.6991716472024194</v>
+        <v>0.5823798518228465</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2560424358108619</v>
       </c>
       <c r="M7">
-        <v>0.6748498845076085</v>
+        <v>0.1855238449141829</v>
       </c>
       <c r="N7">
-        <v>0.1804981918954027</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1772028521674684</v>
+        <v>0.7049699255487951</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1894839136917454</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1748101658317616</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.854454338941963</v>
+        <v>0.8353988642896581</v>
       </c>
       <c r="C8">
-        <v>0.1453568330038806</v>
+        <v>0.1487031711068454</v>
       </c>
       <c r="D8">
-        <v>0.06428683251467504</v>
+        <v>0.06761299945203092</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9322471546261397</v>
+        <v>0.7890705206576669</v>
       </c>
       <c r="G8">
-        <v>0.8768191905292326</v>
+        <v>0.7225134270780416</v>
       </c>
       <c r="H8">
-        <v>0.01345065591072803</v>
+        <v>0.01092801619229354</v>
       </c>
       <c r="I8">
-        <v>0.01417563535301181</v>
+        <v>0.01048610296604302</v>
       </c>
       <c r="J8">
-        <v>0.6274007524488638</v>
+        <v>0.5401085842524225</v>
       </c>
       <c r="K8">
-        <v>0.7273367799189998</v>
+        <v>0.590912435500222</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2526739605358728</v>
       </c>
       <c r="M8">
-        <v>0.8137122026589623</v>
+        <v>0.1926472234294536</v>
       </c>
       <c r="N8">
-        <v>0.2128858162063949</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.2132238818172176</v>
+        <v>0.8502671272480313</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2214914318600023</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2101316747513131</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.145103871233857</v>
+        <v>1.114086926999789</v>
       </c>
       <c r="C9">
-        <v>0.1790764948774353</v>
+        <v>0.1923559885784556</v>
       </c>
       <c r="D9">
-        <v>0.07190601408164099</v>
+        <v>0.07935007642900871</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.074782277875698</v>
+        <v>0.8858890943518674</v>
       </c>
       <c r="G9">
-        <v>1.000642456899726</v>
+        <v>0.7955621740997856</v>
       </c>
       <c r="H9">
-        <v>0.007187117179328961</v>
+        <v>0.005794221748163353</v>
       </c>
       <c r="I9">
-        <v>0.007220759965981927</v>
+        <v>0.005351398529528595</v>
       </c>
       <c r="J9">
-        <v>0.6750461443040621</v>
+        <v>0.5692884094929269</v>
       </c>
       <c r="K9">
-        <v>0.7890054613058766</v>
+        <v>0.6166479165501073</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2489073695472399</v>
       </c>
       <c r="M9">
-        <v>1.085747199567862</v>
+        <v>0.2146556743305119</v>
       </c>
       <c r="N9">
-        <v>0.2764620239774018</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2840699040681685</v>
+        <v>1.136100577174915</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2843628713218749</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2793345906616693</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.356744053556469</v>
+        <v>1.3182958412294</v>
       </c>
       <c r="C10">
-        <v>0.2080669717943948</v>
+        <v>0.2279645059144855</v>
       </c>
       <c r="D10">
-        <v>0.07856979517481477</v>
+        <v>0.09023959238580659</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.160823659850777</v>
+        <v>0.9313272794408505</v>
       </c>
       <c r="G10">
-        <v>1.06997268641905</v>
+        <v>0.8491455575380655</v>
       </c>
       <c r="H10">
-        <v>0.004353774607110061</v>
+        <v>0.003544383105105187</v>
       </c>
       <c r="I10">
-        <v>0.004174871946924341</v>
+        <v>0.003286520952803684</v>
       </c>
       <c r="J10">
-        <v>0.6993329623962552</v>
+        <v>0.5488967690245943</v>
       </c>
       <c r="K10">
-        <v>0.8163628457922201</v>
+        <v>0.6157935286157183</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2385435594274732</v>
       </c>
       <c r="M10">
-        <v>1.294613073923074</v>
+        <v>0.2261264903645319</v>
       </c>
       <c r="N10">
-        <v>0.3055024961625037</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3285216164764151</v>
+        <v>1.352200898645719</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3125011268735705</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3228165802293645</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.438519750846069</v>
+        <v>1.405563199143643</v>
       </c>
       <c r="C11">
-        <v>0.2538183626459443</v>
+        <v>0.2756258302933787</v>
       </c>
       <c r="D11">
-        <v>0.09228844255346047</v>
+        <v>0.1088242933385999</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.031752622590616</v>
+        <v>0.809645652385413</v>
       </c>
       <c r="G11">
-        <v>0.9174847668357557</v>
+        <v>0.7616978196465851</v>
       </c>
       <c r="H11">
-        <v>0.02305716348281095</v>
+        <v>0.02231282482071251</v>
       </c>
       <c r="I11">
-        <v>0.004080479929014835</v>
+        <v>0.00351389591274831</v>
       </c>
       <c r="J11">
-        <v>0.6167115943222257</v>
+        <v>0.4313972837124567</v>
       </c>
       <c r="K11">
-        <v>0.6887565385068655</v>
+        <v>0.5103218976490922</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1978944470646411</v>
       </c>
       <c r="M11">
-        <v>1.454072552908798</v>
+        <v>0.1889678502480336</v>
       </c>
       <c r="N11">
-        <v>0.1848731095905407</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2846319506686825</v>
+        <v>1.505120232425242</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1902029616125063</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2801273991447104</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.464137029615301</v>
+        <v>1.436727097318169</v>
       </c>
       <c r="C12">
-        <v>0.2911115324215388</v>
+        <v>0.3118899873189207</v>
       </c>
       <c r="D12">
-        <v>0.104101211415653</v>
+        <v>0.1230072650707612</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.916455436006629</v>
+        <v>0.7146150648332252</v>
       </c>
       <c r="G12">
-        <v>0.7900579928674034</v>
+        <v>0.6764873671133387</v>
       </c>
       <c r="H12">
-        <v>0.06208039278021005</v>
+        <v>0.06131724939651662</v>
       </c>
       <c r="I12">
-        <v>0.003985092964256864</v>
+        <v>0.003448694544271547</v>
       </c>
       <c r="J12">
-        <v>0.5495714433426002</v>
+        <v>0.368797930779003</v>
       </c>
       <c r="K12">
-        <v>0.5907411385087471</v>
+        <v>0.4384958298995763</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1725060904539184</v>
       </c>
       <c r="M12">
-        <v>1.546334215533733</v>
+        <v>0.1610445517004031</v>
       </c>
       <c r="N12">
-        <v>0.1056296730602213</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2414673802904908</v>
+        <v>1.591024631614175</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1099974317912853</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2379588768872232</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.446290770018095</v>
+        <v>1.424258581756249</v>
       </c>
       <c r="C13">
-        <v>0.324500035116543</v>
+        <v>0.3434881236667309</v>
       </c>
       <c r="D13">
-        <v>0.1152462827692773</v>
+        <v>0.13381105880012</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7987673725470188</v>
+        <v>0.6315068198954776</v>
       </c>
       <c r="G13">
-        <v>0.6675350567474112</v>
+        <v>0.5783798292473108</v>
       </c>
       <c r="H13">
-        <v>0.1184350074663172</v>
+        <v>0.1175697460636798</v>
       </c>
       <c r="I13">
-        <v>0.004273507484875871</v>
+        <v>0.00361702104768824</v>
       </c>
       <c r="J13">
-        <v>0.4867887937101614</v>
+        <v>0.3401078355520681</v>
       </c>
       <c r="K13">
-        <v>0.504264086616061</v>
+        <v>0.3839396862914306</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1546862262622408</v>
       </c>
       <c r="M13">
-        <v>1.592829758676942</v>
+        <v>0.1378200456680254</v>
       </c>
       <c r="N13">
-        <v>0.05368036919117714</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.1964602109030409</v>
+        <v>1.632004418844076</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05750991026123131</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.1937969577199539</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.413887515252924</v>
+        <v>1.395550664042332</v>
       </c>
       <c r="C14">
-        <v>0.3469150190846477</v>
+        <v>0.3643043140936015</v>
       </c>
       <c r="D14">
-        <v>0.122981657882967</v>
+        <v>0.1398714389331133</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7157077345316551</v>
+        <v>0.5775237991896063</v>
       </c>
       <c r="G14">
-        <v>0.5847894886763783</v>
+        <v>0.5062074389395974</v>
       </c>
       <c r="H14">
-        <v>0.1683180668974984</v>
+        <v>0.167339680269734</v>
       </c>
       <c r="I14">
-        <v>0.004762053998819127</v>
+        <v>0.003960596258330895</v>
       </c>
       <c r="J14">
-        <v>0.4451232244705636</v>
+        <v>0.3311904883604768</v>
       </c>
       <c r="K14">
-        <v>0.4499178720313814</v>
+        <v>0.3528402573220326</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1450321353969208</v>
       </c>
       <c r="M14">
-        <v>1.605012122359653</v>
+        <v>0.1237629086751006</v>
       </c>
       <c r="N14">
-        <v>0.03366669705030212</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1648265933379776</v>
+        <v>1.640650190972877</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03727711989238358</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1626821926450042</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.396387970939855</v>
+        <v>1.378950912963433</v>
       </c>
       <c r="C15">
-        <v>0.3511974369033339</v>
+        <v>0.3682933789772562</v>
       </c>
       <c r="D15">
-        <v>0.124586591369102</v>
+        <v>0.1405186548862218</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6932212395694677</v>
+        <v>0.5646837574801964</v>
       </c>
       <c r="G15">
-        <v>0.5634755881526843</v>
+        <v>0.4855650888262204</v>
       </c>
       <c r="H15">
-        <v>0.181070842791641</v>
+        <v>0.1800383607731106</v>
       </c>
       <c r="I15">
-        <v>0.005115298200122353</v>
+        <v>0.00426012042902979</v>
       </c>
       <c r="J15">
-        <v>0.4348054588301977</v>
+        <v>0.3330242567503916</v>
       </c>
       <c r="K15">
-        <v>0.4371268672136033</v>
+        <v>0.3467354293942471</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1433116467137783</v>
       </c>
       <c r="M15">
-        <v>1.598103767926119</v>
+        <v>0.120676018655292</v>
       </c>
       <c r="N15">
-        <v>0.03090066939256086</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1563838323221312</v>
+        <v>1.633058929142067</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03451208984127785</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1543560975532472</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.308359200803864</v>
+        <v>1.290908730351333</v>
       </c>
       <c r="C16">
-        <v>0.3310728207672327</v>
+        <v>0.3492796354557868</v>
       </c>
       <c r="D16">
-        <v>0.1191138476269344</v>
+        <v>0.1307915262099613</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6791351659310791</v>
+        <v>0.5726846295842591</v>
       </c>
       <c r="G16">
-        <v>0.557524370409169</v>
+        <v>0.4643333160262699</v>
       </c>
       <c r="H16">
-        <v>0.1695927588096566</v>
+        <v>0.1682841831348725</v>
       </c>
       <c r="I16">
-        <v>0.006429450570183626</v>
+        <v>0.005197369832994347</v>
       </c>
       <c r="J16">
-        <v>0.436250790074908</v>
+        <v>0.3731504211840786</v>
       </c>
       <c r="K16">
-        <v>0.4420237371556226</v>
+        <v>0.3614073952075003</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1497938340771263</v>
       </c>
       <c r="M16">
-        <v>1.497021925129218</v>
+        <v>0.1240225566499937</v>
       </c>
       <c r="N16">
-        <v>0.03063622613529926</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1477579387199697</v>
+        <v>1.533630674016081</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03473157092474999</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1456999982729386</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.258162382032253</v>
+        <v>1.239122202029364</v>
       </c>
       <c r="C17">
-        <v>0.3035037572697519</v>
+        <v>0.3226837237087636</v>
       </c>
       <c r="D17">
-        <v>0.1107460309411934</v>
+        <v>0.1207390273570894</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7116561158095465</v>
+        <v>0.6059359489116503</v>
       </c>
       <c r="G17">
-        <v>0.5957619486071337</v>
+        <v>0.4871008309512064</v>
       </c>
       <c r="H17">
-        <v>0.1325092692753032</v>
+        <v>0.1310475477361308</v>
       </c>
       <c r="I17">
-        <v>0.007240558703617062</v>
+        <v>0.005793938943220667</v>
       </c>
       <c r="J17">
-        <v>0.4590137559329435</v>
+        <v>0.4082214265224735</v>
       </c>
       <c r="K17">
-        <v>0.4734995155341259</v>
+        <v>0.3887916705897894</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1603691320274248</v>
       </c>
       <c r="M17">
-        <v>1.413365272669694</v>
+        <v>0.1333884387463691</v>
       </c>
       <c r="N17">
-        <v>0.03823353092442616</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1574040507736534</v>
+        <v>1.452441988984589</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04284272149370594</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1550892174981229</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.235374545572597</v>
+        <v>1.212712735580396</v>
       </c>
       <c r="C18">
-        <v>0.2680023193466212</v>
+        <v>0.2882234314929377</v>
       </c>
       <c r="D18">
-        <v>0.09951653453688891</v>
+        <v>0.1090295245791069</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7937862062252705</v>
+        <v>0.6726423355669695</v>
       </c>
       <c r="G18">
-        <v>0.6839845953976607</v>
+        <v>0.5507498078831929</v>
       </c>
       <c r="H18">
-        <v>0.07972991671583429</v>
+        <v>0.07824168687402278</v>
       </c>
       <c r="I18">
-        <v>0.007250758737833429</v>
+        <v>0.005692426675873996</v>
       </c>
       <c r="J18">
-        <v>0.5064297035221301</v>
+        <v>0.4521121892758231</v>
       </c>
       <c r="K18">
-        <v>0.5386320385437351</v>
+        <v>0.4371639972003898</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1783601844431466</v>
       </c>
       <c r="M18">
-        <v>1.33531494061927</v>
+        <v>0.1513674873607513</v>
       </c>
       <c r="N18">
-        <v>0.06758855661954044</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1856630350864599</v>
+        <v>1.378573026665151</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07289249237261686</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1827695827709839</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.234435800398074</v>
+        <v>1.206773376371501</v>
       </c>
       <c r="C19">
-        <v>0.2345025823513396</v>
+        <v>0.2551245490214029</v>
       </c>
       <c r="D19">
-        <v>0.08865129799995941</v>
+        <v>0.09810764225893109</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.909250940746773</v>
+        <v>0.7612551872513791</v>
       </c>
       <c r="G19">
-        <v>0.8076560877002237</v>
+        <v>0.6412676617365918</v>
       </c>
       <c r="H19">
-        <v>0.03375784452666863</v>
+        <v>0.03237579407543478</v>
       </c>
       <c r="I19">
-        <v>0.007140522888433587</v>
+        <v>0.005686287784246069</v>
       </c>
       <c r="J19">
-        <v>0.5707224886815681</v>
+        <v>0.5025470333901012</v>
       </c>
       <c r="K19">
-        <v>0.6298280249570212</v>
+        <v>0.5015790854254334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2019412278920285</v>
       </c>
       <c r="M19">
-        <v>1.27121428277826</v>
+        <v>0.1759879413556149</v>
       </c>
       <c r="N19">
-        <v>0.133607669841517</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2295018531792508</v>
+        <v>1.319638051698405</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1397813036302367</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2257360019739671</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.298170026250574</v>
+        <v>1.26125025274527</v>
       </c>
       <c r="C20">
-        <v>0.2025835195877477</v>
+        <v>0.2222263107457252</v>
       </c>
       <c r="D20">
-        <v>0.07750138779511673</v>
+        <v>0.0876322729307546</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.124885253524113</v>
+        <v>0.9155689867808974</v>
       </c>
       <c r="G20">
-        <v>1.037086069918018</v>
+        <v>0.813912264580182</v>
       </c>
       <c r="H20">
-        <v>0.005026289571410381</v>
+        <v>0.004062405793140655</v>
       </c>
       <c r="I20">
-        <v>0.005733348737173571</v>
+        <v>0.004747758475986075</v>
       </c>
       <c r="J20">
-        <v>0.6854548540053713</v>
+        <v>0.5686123861962216</v>
       </c>
       <c r="K20">
-        <v>0.7977929658190419</v>
+        <v>0.6116870387706683</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2396723417041606</v>
       </c>
       <c r="M20">
-        <v>1.24316034349647</v>
+        <v>0.2212890182664644</v>
       </c>
       <c r="N20">
-        <v>0.2971228814913331</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3161196654906817</v>
+        <v>1.299944167403623</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3044582801202012</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3106117284796852</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.463596067488396</v>
+        <v>1.423643984928219</v>
       </c>
       <c r="C21">
-        <v>0.2200368938451476</v>
+        <v>0.2390444772356517</v>
       </c>
       <c r="D21">
-        <v>0.08091757868321992</v>
+        <v>0.09721348788367123</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.224435154659503</v>
+        <v>0.9386543243850554</v>
       </c>
       <c r="G21">
-        <v>1.127008747249945</v>
+        <v>0.9338743698874055</v>
       </c>
       <c r="H21">
-        <v>0.002781510492221528</v>
+        <v>0.002263418531253669</v>
       </c>
       <c r="I21">
-        <v>0.003733991317229624</v>
+        <v>0.003419374600677649</v>
       </c>
       <c r="J21">
-        <v>0.7228546332690797</v>
+        <v>0.4685419946843865</v>
       </c>
       <c r="K21">
-        <v>0.8467360244366589</v>
+        <v>0.608051839151905</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2309691084118661</v>
       </c>
       <c r="M21">
-        <v>1.392843624637464</v>
+        <v>0.2294109940514346</v>
       </c>
       <c r="N21">
-        <v>0.3471436445807683</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3621627225448876</v>
+        <v>1.449387557467759</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3534051936284328</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3561951864399262</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.572340977862297</v>
+        <v>1.530953595889571</v>
       </c>
       <c r="C22">
-        <v>0.2324156774019457</v>
+        <v>0.2506826193898775</v>
       </c>
       <c r="D22">
-        <v>0.08339994984505239</v>
+        <v>0.1041767363115511</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.285513404762398</v>
+        <v>0.947976815245454</v>
       </c>
       <c r="G22">
-        <v>1.181163897046318</v>
+        <v>1.016870191864484</v>
       </c>
       <c r="H22">
-        <v>0.001785766402979005</v>
+        <v>0.001475698282110693</v>
       </c>
       <c r="I22">
-        <v>0.002524438749516911</v>
+        <v>0.002457376058812244</v>
       </c>
       <c r="J22">
-        <v>0.7449830263875299</v>
+        <v>0.4053281148532335</v>
       </c>
       <c r="K22">
-        <v>0.8749290950575599</v>
+        <v>0.601556816266104</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2240471506583113</v>
       </c>
       <c r="M22">
-        <v>1.493334290436962</v>
+        <v>0.2333238827634716</v>
       </c>
       <c r="N22">
-        <v>0.3708139076679373</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3886094583316861</v>
+        <v>1.548747909923662</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3762518551055791</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3824418510855594</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.515403271959769</v>
+        <v>1.47409480807417</v>
       </c>
       <c r="C23">
-        <v>0.2250037676385404</v>
+        <v>0.2441956182659482</v>
       </c>
       <c r="D23">
-        <v>0.08183235595937788</v>
+        <v>0.09967377539205557</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.257536145890413</v>
+        <v>0.9517631578879531</v>
       </c>
       <c r="G23">
-        <v>1.15739436256996</v>
+        <v>0.9690322072476221</v>
       </c>
       <c r="H23">
-        <v>0.002280805082355064</v>
+        <v>0.001863230825313922</v>
       </c>
       <c r="I23">
-        <v>0.002802176561865544</v>
+        <v>0.002548618319267781</v>
       </c>
       <c r="J23">
-        <v>0.7357787095019006</v>
+        <v>0.4513057136026504</v>
       </c>
       <c r="K23">
-        <v>0.8639293111510753</v>
+        <v>0.6110191753276908</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2297489183055106</v>
       </c>
       <c r="M23">
-        <v>1.438419281995721</v>
+        <v>0.2336838328651396</v>
       </c>
       <c r="N23">
-        <v>0.3581661927452302</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3746476482075067</v>
+        <v>1.49545267078102</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3641196538007279</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3684905258777889</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.298343198629993</v>
+        <v>1.260764357679022</v>
       </c>
       <c r="C24">
-        <v>0.1986670740245131</v>
+        <v>0.2176941102934933</v>
       </c>
       <c r="D24">
-        <v>0.0762720682895548</v>
+        <v>0.08616006717433322</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.145711790205894</v>
+        <v>0.932060066648333</v>
       </c>
       <c r="G24">
-        <v>1.060432803591723</v>
+        <v>0.8311802822677947</v>
       </c>
       <c r="H24">
-        <v>0.00477824570278873</v>
+        <v>0.003831325331873248</v>
       </c>
       <c r="I24">
-        <v>0.005169048551978861</v>
+        <v>0.004095949154342193</v>
       </c>
       <c r="J24">
-        <v>0.6974717783541706</v>
+        <v>0.5787118889816156</v>
       </c>
       <c r="K24">
-        <v>0.8162298152195575</v>
+        <v>0.6252130458174037</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2446545253390262</v>
       </c>
       <c r="M24">
-        <v>1.233404737016059</v>
+        <v>0.2264266835592359</v>
       </c>
       <c r="N24">
-        <v>0.310450045081609</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3216376615626828</v>
+        <v>1.290725321402221</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3179070226698855</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3159932405359669</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.064823978349523</v>
+        <v>1.037002872239782</v>
       </c>
       <c r="C25">
-        <v>0.1709920434047021</v>
+        <v>0.1821666877577854</v>
       </c>
       <c r="D25">
-        <v>0.07020844142724769</v>
+        <v>0.07638294124171097</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.028599243341645</v>
+        <v>0.8563158402508719</v>
       </c>
       <c r="G25">
-        <v>0.958863100239256</v>
+        <v>0.7653621422595904</v>
       </c>
       <c r="H25">
-        <v>0.008669918459270093</v>
+        <v>0.007000065249215537</v>
       </c>
       <c r="I25">
-        <v>0.0092977696609573</v>
+        <v>0.007064332661830264</v>
       </c>
       <c r="J25">
-        <v>0.6578755218537111</v>
+        <v>0.566542317624382</v>
       </c>
       <c r="K25">
-        <v>0.7660149364872311</v>
+        <v>0.6066405917723259</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2488683167869326</v>
       </c>
       <c r="M25">
-        <v>1.013789482333834</v>
+        <v>0.2070334031678982</v>
       </c>
       <c r="N25">
-        <v>0.259247445360117</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.264657659204282</v>
+        <v>1.060829033466206</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2673905572354727</v>
       </c>
       <c r="Q25">
+        <v>0.2603621931629796</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
